--- a/results/DeterministicUSM/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G2">
-        <v>762.2825659765925</v>
+        <v>288.4089241967039</v>
       </c>
       <c r="H2">
-        <v>259.2146197893283</v>
+        <v>83.22562476258535</v>
       </c>
       <c r="I2">
-        <v>503.0679461872642</v>
+        <v>205.1832994341186</v>
       </c>
       <c r="J2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K2">
-        <v>662.1853668049474</v>
+        <v>400.6887490636194</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N2">
-        <v>0.7597086426336681</v>
+        <v>0.5120765180295606</v>
       </c>
       <c r="O2">
-        <v>826.9910076585455</v>
+        <v>472.2826626326101</v>
       </c>
       <c r="P2">
-        <v>164.8056408535981</v>
+        <v>71.59391356899059</v>
       </c>
       <c r="Q2">
-        <v>1.613026976146464</v>
+        <v>1.886567603515629</v>
       </c>
       <c r="R2">
-        <v>396.349422286988</v>
+        <v>265.6219911154639</v>
       </c>
       <c r="S2">
-        <v>5.017977560568979</v>
+        <v>6.596687331214278</v>
       </c>
       <c r="T2">
-        <v>2.940739093327849</v>
+        <v>3.465386111782728</v>
       </c>
       <c r="U2">
-        <v>1.078660942045228</v>
+        <v>1.242824058405713</v>
       </c>
       <c r="V2">
-        <v>223.4632602134118</v>
+        <v>101.7484907033313</v>
       </c>
       <c r="W2">
-        <v>441.2258906303018</v>
+        <v>739.1105373834474</v>
       </c>
       <c r="X2">
         <v>944.293836817566</v>
       </c>
       <c r="Y2">
-        <v>282.1084700126186</v>
+        <v>543.6050877539466</v>
       </c>
       <c r="Z2">
-        <v>1.564029221138117</v>
+        <v>1.359646099776743</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>800.3732319676432</v>
+        <v>344.7836914266927</v>
       </c>
       <c r="H3">
-        <v>125.6010783999023</v>
+        <v>116.2708806015357</v>
       </c>
       <c r="I3">
-        <v>674.7721535677409</v>
+        <v>228.512810825157</v>
       </c>
       <c r="J3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K3">
-        <v>803.9741864503635</v>
+        <v>508.6532771735046</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N3">
-        <v>0.8392957944917808</v>
+        <v>0.4492506410161395</v>
       </c>
       <c r="O3">
-        <v>929.5178375631195</v>
+        <v>551.4561814957559</v>
       </c>
       <c r="P3">
-        <v>125.543651112756</v>
+        <v>42.80290432225114</v>
       </c>
       <c r="Q3">
-        <v>2.0020124817414</v>
+        <v>2.555956423938099</v>
       </c>
       <c r="R3">
-        <v>552.6342299192385</v>
+        <v>399.2509189078392</v>
       </c>
       <c r="S3">
-        <v>7.403941412603023</v>
+        <v>12.88361596549608</v>
       </c>
       <c r="T3">
-        <v>6.372343630835148</v>
+        <v>2.96534858636083</v>
       </c>
       <c r="U3">
-        <v>1.85196731884783</v>
+        <v>1.086994592608642</v>
       </c>
       <c r="V3">
-        <v>442.1630611590779</v>
+        <v>102.1269923334426</v>
       </c>
       <c r="W3">
-        <v>280.4682770788725</v>
+        <v>726.7276198214564</v>
       </c>
       <c r="X3">
         <v>955.2404306466134</v>
       </c>
       <c r="Y3">
-        <v>151.2662441962499</v>
+        <v>446.5871534731088</v>
       </c>
       <c r="Z3">
-        <v>1.854136582613887</v>
+        <v>1.627291815650528</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G4">
-        <v>678.4492423307088</v>
+        <v>373.2072957644382</v>
       </c>
       <c r="H4">
-        <v>191.0682576740367</v>
+        <v>90.48582340129757</v>
       </c>
       <c r="I4">
-        <v>487.3809846566721</v>
+        <v>282.7214723631406</v>
       </c>
       <c r="J4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
-        <v>911.580570287958</v>
+        <v>551.9463488449119</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N4">
-        <v>0.5346548627102856</v>
+        <v>0.5122263657596562</v>
       </c>
       <c r="O4">
-        <v>1040.112745087449</v>
+        <v>614.5437998655553</v>
       </c>
       <c r="P4">
-        <v>128.5321747994915</v>
+        <v>62.59745102064366</v>
       </c>
       <c r="Q4">
-        <v>2.090905134459322</v>
+        <v>2.284155644951589</v>
       </c>
       <c r="R4">
-        <v>642.8319860564782</v>
+        <v>408.9640277365278</v>
       </c>
       <c r="S4">
-        <v>8.092236412478135</v>
+        <v>9.817393357804432</v>
       </c>
       <c r="T4">
-        <v>3.550821316893705</v>
+        <v>4.124483612303476</v>
       </c>
       <c r="U4">
-        <v>1.267178933599917</v>
+        <v>1.416940827054234</v>
       </c>
       <c r="V4">
-        <v>245.2633136524921</v>
+        <v>154.5084149162227</v>
       </c>
       <c r="W4">
-        <v>638.3275699620563</v>
+        <v>842.9870822555878</v>
       </c>
       <c r="X4">
         <v>1125.708554618728</v>
       </c>
       <c r="Y4">
-        <v>214.1279843307703</v>
+        <v>573.7622057738165</v>
       </c>
       <c r="Z4">
-        <v>2.981056268553909</v>
+        <v>1.469227275293735</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>769.2943195048919</v>
+        <v>543.5540785108454</v>
       </c>
       <c r="H5">
-        <v>178.3304961035622</v>
+        <v>156.4093641492395</v>
       </c>
       <c r="I5">
-        <v>590.9638234013296</v>
+        <v>387.1447143616059</v>
       </c>
       <c r="J5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K5">
-        <v>803.650222023701</v>
+        <v>476.1118330288332</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N5">
-        <v>0.7353495428809838</v>
+        <v>0.8131381904514868</v>
       </c>
       <c r="O5">
-        <v>963.4324098575811</v>
+        <v>545.1922215644006</v>
       </c>
       <c r="P5">
-        <v>159.7821878338804</v>
+        <v>69.08038853556735</v>
       </c>
       <c r="Q5">
-        <v>1.796690773003453</v>
+        <v>2.06586755490551</v>
       </c>
       <c r="R5">
-        <v>516.571039452263</v>
+        <v>333.4008996729381</v>
       </c>
       <c r="S5">
-        <v>6.029660895989394</v>
+        <v>7.892141794826443</v>
       </c>
       <c r="T5">
-        <v>4.313868554810379</v>
+        <v>3.47520163813343</v>
       </c>
       <c r="U5">
-        <v>1.46183507805686</v>
+        <v>1.245652502695487</v>
       </c>
       <c r="V5">
-        <v>330.2740487098602</v>
+        <v>192.3129984640958</v>
       </c>
       <c r="W5">
-        <v>454.2290702876169</v>
+        <v>658.0481793273406</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>241.5426716652455</v>
+        <v>569.0810606601133</v>
       </c>
       <c r="Z5">
-        <v>1.880533436001461</v>
+        <v>1.156334703115983</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>663.2166212283244</v>
+        <v>371.8649387177683</v>
       </c>
       <c r="H6">
-        <v>204.7869298705203</v>
+        <v>153.4614024118252</v>
       </c>
       <c r="I6">
-        <v>458.4296913578041</v>
+        <v>218.4035363059432</v>
       </c>
       <c r="J6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K6">
-        <v>848.7062434516238</v>
+        <v>566.3086402329884</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N6">
-        <v>0.5401511947094974</v>
+        <v>0.385661670667939</v>
       </c>
       <c r="O6">
-        <v>987.1771066683214</v>
+        <v>619.4099554160166</v>
       </c>
       <c r="P6">
-        <v>138.4708632166977</v>
+        <v>53.10131518302816</v>
       </c>
       <c r="Q6">
-        <v>1.964189533107382</v>
+        <v>2.456565644103617</v>
       </c>
       <c r="R6">
-        <v>576.723223281042</v>
+        <v>435.8617736976437</v>
       </c>
       <c r="S6">
-        <v>7.129132322396623</v>
+        <v>11.66468200045614</v>
       </c>
       <c r="T6">
-        <v>3.238569090555015</v>
+        <v>2.423182200041682</v>
       </c>
       <c r="U6">
-        <v>1.175131593535549</v>
+        <v>0.8850816350624789</v>
       </c>
       <c r="V6">
-        <v>217.778100123807</v>
+        <v>82.57766734030389</v>
       </c>
       <c r="W6">
-        <v>569.5990008900417</v>
+        <v>809.6251559419027</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>179.322448796222</v>
+        <v>461.7200520148574</v>
       </c>
       <c r="Z6">
-        <v>3.176395396748798</v>
+        <v>1.753497931070688</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>805.3556593781585</v>
+        <v>402.4150713709755</v>
       </c>
       <c r="H7">
-        <v>196.8853828180359</v>
+        <v>73.15431342437509</v>
       </c>
       <c r="I7">
-        <v>608.4702765601226</v>
+        <v>329.2607579466004</v>
       </c>
       <c r="J7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K7">
-        <v>889.6043142141971</v>
+        <v>536.5660016271825</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N7">
-        <v>0.6839785585994993</v>
+        <v>0.6136444667535567</v>
       </c>
       <c r="O7">
-        <v>1015.337390270881</v>
+        <v>588.9215173437891</v>
       </c>
       <c r="P7">
-        <v>125.733076056684</v>
+        <v>52.3555157166066</v>
       </c>
       <c r="Q7">
-        <v>2.088815024569283</v>
+        <v>2.420235633409122</v>
       </c>
       <c r="R7">
-        <v>626.9711758616828</v>
+        <v>409.8533168843398</v>
       </c>
       <c r="S7">
-        <v>8.075340412519122</v>
+        <v>11.24850952727775</v>
       </c>
       <c r="T7">
-        <v>4.090479688492055</v>
+        <v>5.500906953176194</v>
       </c>
       <c r="U7">
-        <v>1.408662246427459</v>
+        <v>1.704912979221309</v>
       </c>
       <c r="V7">
-        <v>331.1252709109378</v>
+        <v>204.5390195033597</v>
       </c>
       <c r="W7">
-        <v>442.0880388989899</v>
+        <v>721.2975575125121</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>160.9540012449154</v>
+        <v>513.99231383193</v>
       </c>
       <c r="Z7">
-        <v>2.74667318289458</v>
+        <v>1.403323625863341</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G8">
-        <v>575.5716665177697</v>
+        <v>570.0072008303523</v>
       </c>
       <c r="H8">
-        <v>129.0233978285468</v>
+        <v>156.2642108933312</v>
       </c>
       <c r="I8">
-        <v>446.5482686892229</v>
+        <v>413.7429899370212</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K8">
-        <v>872.2969157683831</v>
+        <v>522.2771770554918</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N8">
-        <v>0.5119223289880264</v>
+        <v>0.7921904462102525</v>
       </c>
       <c r="O8">
-        <v>991.3786179361476</v>
+        <v>658.9055008379647</v>
       </c>
       <c r="P8">
-        <v>119.0817021677646</v>
+        <v>136.6283237824729</v>
       </c>
       <c r="Q8">
-        <v>2.119286687442573</v>
+        <v>1.573315852424747</v>
       </c>
       <c r="R8">
-        <v>619.9286496462381</v>
+        <v>307.317669358306</v>
       </c>
       <c r="S8">
-        <v>8.325196901699258</v>
+        <v>4.822612783327515</v>
       </c>
       <c r="T8">
-        <v>4.460986737325119</v>
+        <v>3.647714326727377</v>
       </c>
       <c r="U8">
-        <v>1.495369983114387</v>
+        <v>1.29410075958635</v>
       </c>
       <c r="V8">
-        <v>253.6105524569881</v>
+        <v>211.5213559237997</v>
       </c>
       <c r="W8">
-        <v>655.8304470905258</v>
+        <v>688.6357258427277</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>230.0818000113657</v>
+        <v>580.1015387242569</v>
       </c>
       <c r="Z8">
-        <v>2.850422967214829</v>
+        <v>1.187095154681293</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <v>638.9843837532633</v>
+        <v>381.9463357427989</v>
       </c>
       <c r="H9">
-        <v>146.6869902208747</v>
+        <v>38.78169004164758</v>
       </c>
       <c r="I9">
-        <v>492.2973935323885</v>
+        <v>343.1646457011514</v>
       </c>
       <c r="J9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K9">
-        <v>775.9535713270766</v>
+        <v>440.1285578452625</v>
       </c>
       <c r="L9">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N9">
-        <v>0.6344418167834909</v>
+        <v>0.7796918413592214</v>
       </c>
       <c r="O9">
-        <v>979.6674177494514</v>
+        <v>563.1137811743922</v>
       </c>
       <c r="P9">
-        <v>203.7138464223749</v>
+        <v>122.9852233291296</v>
       </c>
       <c r="Q9">
-        <v>1.570496848917593</v>
+        <v>1.521417493101302</v>
       </c>
       <c r="R9">
-        <v>456.0216174398542</v>
+        <v>253.0166876793543</v>
       </c>
       <c r="S9">
-        <v>4.809036965107589</v>
+        <v>4.578710888440661</v>
       </c>
       <c r="T9">
-        <v>4.356108082871623</v>
+        <v>9.848625352134666</v>
       </c>
       <c r="U9">
-        <v>1.471579017176028</v>
+        <v>2.287331887285935</v>
       </c>
       <c r="V9">
-        <v>276.435896630644</v>
+        <v>254.4580494260515</v>
       </c>
       <c r="W9">
-        <v>569.9997415808127</v>
+        <v>719.1324894120498</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>286.3435637861246</v>
+        <v>622.1685772679386</v>
       </c>
       <c r="Z9">
-        <v>1.990614819638678</v>
+        <v>1.155848295280193</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>817.8278146081296</v>
+        <v>423.4225645306641</v>
       </c>
       <c r="H10">
-        <v>218.2393354104748</v>
+        <v>71.31800199701092</v>
       </c>
       <c r="I10">
-        <v>599.5884791976548</v>
+        <v>352.1045625336532</v>
       </c>
       <c r="J10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K10">
-        <v>682.7561740737708</v>
+        <v>392.6362359338016</v>
       </c>
       <c r="L10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M10">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N10">
-        <v>0.8781882932235047</v>
+        <v>0.8967704208355798</v>
       </c>
       <c r="O10">
-        <v>877.2903603115437</v>
+        <v>460.4440461525583</v>
       </c>
       <c r="P10">
-        <v>194.5341862377728</v>
+        <v>67.8078102187566</v>
       </c>
       <c r="Q10">
-        <v>1.506230108837336</v>
+        <v>1.915513958307733</v>
       </c>
       <c r="R10">
-        <v>389.7429255642678</v>
+        <v>262.7494289774917</v>
       </c>
       <c r="S10">
-        <v>4.509697638641572</v>
+        <v>6.790427897127297</v>
       </c>
       <c r="T10">
-        <v>3.747389594409828</v>
+        <v>5.937106378112087</v>
       </c>
       <c r="U10">
-        <v>1.321059489429161</v>
+        <v>1.7812218729505</v>
       </c>
       <c r="V10">
-        <v>311.2813341869335</v>
+        <v>225.0713774414499</v>
       </c>
       <c r="W10">
-        <v>367.2099162988355</v>
+        <v>614.6938329628372</v>
       </c>
       <c r="X10">
         <v>966.7983954964903</v>
       </c>
       <c r="Y10">
-        <v>284.0422214227195</v>
+        <v>574.1621595626888</v>
       </c>
       <c r="Z10">
-        <v>1.292800466281185</v>
+        <v>1.070592728421914</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>814.2916837873956</v>
+        <v>289.6069656442942</v>
       </c>
       <c r="H11">
-        <v>228.2240166183255</v>
+        <v>54.23808511831534</v>
       </c>
       <c r="I11">
-        <v>586.0676671690701</v>
+        <v>235.3688805259789</v>
       </c>
       <c r="J11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K11">
-        <v>752.2732868669984</v>
+        <v>391.3209032251618</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M11">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N11">
-        <v>0.7790621804608709</v>
+        <v>0.6014728029761043</v>
       </c>
       <c r="O11">
-        <v>877.9226613709614</v>
+        <v>515.4063095281165</v>
       </c>
       <c r="P11">
-        <v>125.6493745039628</v>
+        <v>124.0854063029547</v>
       </c>
       <c r="Q11">
-        <v>1.94406321886156</v>
+        <v>1.423985451119811</v>
       </c>
       <c r="R11">
-        <v>508.0029594208831</v>
+        <v>214.6250899534638</v>
       </c>
       <c r="S11">
-        <v>6.987083420325925</v>
+        <v>4.153641631875316</v>
       </c>
       <c r="T11">
-        <v>3.56794913985407</v>
+        <v>5.33954996774948</v>
       </c>
       <c r="U11">
-        <v>1.271990960090962</v>
+        <v>1.675141373718362</v>
       </c>
       <c r="V11">
-        <v>295.7687811549106</v>
+        <v>144.5124201130307</v>
       </c>
       <c r="W11">
-        <v>432.7152463421316</v>
+        <v>783.4140329852228</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>266.5096266442033</v>
+        <v>627.4620102860399</v>
       </c>
       <c r="Z11">
-        <v>1.623638334534973</v>
+        <v>1.248544167045411</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>736.3551036879929</v>
+        <v>470.3220133052571</v>
       </c>
       <c r="H12">
-        <v>183.8202037534288</v>
+        <v>143.779854386638</v>
       </c>
       <c r="I12">
-        <v>552.5348999345642</v>
+        <v>326.5421589186191</v>
       </c>
       <c r="J12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K12">
-        <v>779.33574134013</v>
+        <v>422.7617296869428</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M12">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N12">
-        <v>0.7089818554766093</v>
+        <v>0.7724023628165804</v>
       </c>
       <c r="O12">
-        <v>907.3184647118813</v>
+        <v>459.1092285496929</v>
       </c>
       <c r="P12">
-        <v>127.9827233717513</v>
+        <v>36.3474988627501</v>
       </c>
       <c r="Q12">
-        <v>1.95859822609192</v>
+        <v>2.536162757911322</v>
       </c>
       <c r="R12">
-        <v>528.6690063738051</v>
+        <v>330.5785567280119</v>
       </c>
       <c r="S12">
-        <v>7.089382385436465</v>
+        <v>12.63110923486954</v>
       </c>
       <c r="T12">
-        <v>4.005844236119545</v>
+        <v>3.271125953713344</v>
       </c>
       <c r="U12">
-        <v>1.387754353841532</v>
+        <v>1.185134253994464</v>
       </c>
       <c r="V12">
-        <v>297.4376118517059</v>
+        <v>156.1437284506781</v>
       </c>
       <c r="W12">
-        <v>427.3868907125311</v>
+        <v>653.3796317284763</v>
       </c>
       <c r="X12">
         <v>979.9217906470953</v>
       </c>
       <c r="Y12">
-        <v>200.5860493069654</v>
+        <v>557.1600609601526</v>
       </c>
       <c r="Z12">
-        <v>2.130691003632475</v>
+        <v>1.172696461053775</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G13">
-        <v>830.2190011044661</v>
+        <v>347.5783907252662</v>
       </c>
       <c r="H13">
-        <v>152.0977962605409</v>
+        <v>61.07372928266435</v>
       </c>
       <c r="I13">
-        <v>678.1212048439252</v>
+        <v>286.5046614426018</v>
       </c>
       <c r="J13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K13">
-        <v>878.806259992645</v>
+        <v>559.5363619017139</v>
       </c>
       <c r="L13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M13">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N13">
-        <v>0.7716390241116404</v>
+        <v>0.512039397169559</v>
       </c>
       <c r="O13">
-        <v>1010.403077700276</v>
+        <v>602.5605061983042</v>
       </c>
       <c r="P13">
-        <v>131.5968177076315</v>
+        <v>43.02414429659054</v>
       </c>
       <c r="Q13">
-        <v>2.038361780007407</v>
+        <v>2.639426632164311</v>
       </c>
       <c r="R13">
-        <v>610.5643364068067</v>
+        <v>445.9772896192123</v>
       </c>
       <c r="S13">
-        <v>7.678020603393978</v>
+        <v>14.00517119049487</v>
       </c>
       <c r="T13">
-        <v>5.458455161850704</v>
+        <v>5.691127671549043</v>
       </c>
       <c r="U13">
-        <v>1.697165812332498</v>
+        <v>1.738908413308735</v>
       </c>
       <c r="V13">
-        <v>419.9860248994216</v>
+        <v>180.3030397608367</v>
       </c>
       <c r="W13">
-        <v>396.2688428347444</v>
+        <v>787.8853862360678</v>
       </c>
       <c r="X13">
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>195.5837876860246</v>
+        <v>514.8536857769557</v>
       </c>
       <c r="Z13">
-        <v>2.026082261331826</v>
+        <v>1.530309305345819</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>782.2314780305472</v>
+        <v>488.5288037115872</v>
       </c>
       <c r="H14">
-        <v>168.4670293206533</v>
+        <v>89.96630528991004</v>
       </c>
       <c r="I14">
-        <v>613.7644487098939</v>
+        <v>398.5624984216772</v>
       </c>
       <c r="J14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K14">
-        <v>844.5454654022458</v>
+        <v>576.3982978674983</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M14">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N14">
-        <v>0.726739380949214</v>
+        <v>0.691470637398201</v>
       </c>
       <c r="O14">
-        <v>1041.684261489453</v>
+        <v>650.3515440062891</v>
       </c>
       <c r="P14">
-        <v>197.1387960872069</v>
+        <v>73.95324613879065</v>
       </c>
       <c r="Q14">
-        <v>1.664686135063498</v>
+        <v>2.174079969029318</v>
       </c>
       <c r="R14">
-        <v>516.3712448727624</v>
+        <v>415.618026792459</v>
       </c>
       <c r="S14">
-        <v>5.284014522583623</v>
+        <v>8.794090563458859</v>
       </c>
       <c r="T14">
-        <v>4.643231860767721</v>
+        <v>5.430130782156028</v>
       </c>
       <c r="U14">
-        <v>1.535410645496672</v>
+        <v>1.69196321876741</v>
       </c>
       <c r="V14">
-        <v>355.0983784757628</v>
+        <v>246.3428189427495</v>
       </c>
       <c r="W14">
-        <v>451.0949531630365</v>
+        <v>666.2969034512532</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>220.3139364706847</v>
+        <v>488.4611040054322</v>
       </c>
       <c r="Z14">
-        <v>2.047509841589435</v>
+        <v>1.36407361402484</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>858.6755219627079</v>
+        <v>388.4520475393162</v>
       </c>
       <c r="H15">
-        <v>249.7667375307043</v>
+        <v>98.90059874439329</v>
       </c>
       <c r="I15">
-        <v>608.9087844320036</v>
+        <v>289.5514487949229</v>
       </c>
       <c r="J15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K15">
-        <v>932.0057660290917</v>
+        <v>578.1418675153641</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M15">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N15">
-        <v>0.6533315636300442</v>
+        <v>0.5008311368960459</v>
       </c>
       <c r="O15">
-        <v>1095.641849524988</v>
+        <v>628.9323296970965</v>
       </c>
       <c r="P15">
-        <v>163.636083495897</v>
+        <v>50.79046218173238</v>
       </c>
       <c r="Q15">
-        <v>1.901450675358476</v>
+        <v>2.516315082336832</v>
       </c>
       <c r="R15">
-        <v>620.8598245528021</v>
+        <v>450.3370614886124</v>
       </c>
       <c r="S15">
-        <v>6.695600543094523</v>
+        <v>12.38288258623688</v>
       </c>
       <c r="T15">
-        <v>3.437909829194727</v>
+        <v>3.927701676945992</v>
       </c>
       <c r="U15">
-        <v>1.234863678924654</v>
+        <v>1.368054439783697</v>
       </c>
       <c r="V15">
-        <v>300.4809120518296</v>
+        <v>154.2500455853897</v>
       </c>
       <c r="W15">
-        <v>538.6399887720179</v>
+        <v>857.9973244090986</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>215.5430071749298</v>
+        <v>569.4069056886574</v>
       </c>
       <c r="Z15">
-        <v>2.498990785327913</v>
+        <v>1.506826341298779</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>659.9596478568297</v>
+        <v>292.8886347547684</v>
       </c>
       <c r="H16">
-        <v>143.3032589610854</v>
+        <v>34.69409724450028</v>
       </c>
       <c r="I16">
-        <v>516.6563888957444</v>
+        <v>258.1945375102681</v>
       </c>
       <c r="J16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K16">
-        <v>780.9453305191142</v>
+        <v>508.3516510218024</v>
       </c>
       <c r="L16">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M16">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N16">
-        <v>0.6615781780170319</v>
+        <v>0.50790537808088</v>
       </c>
       <c r="O16">
-        <v>1028.066037583965</v>
+        <v>632.4080070080846</v>
       </c>
       <c r="P16">
-        <v>247.1207070648504</v>
+        <v>124.0563559862822</v>
       </c>
       <c r="Q16">
-        <v>1.425557773019891</v>
+        <v>1.628798820439356</v>
       </c>
       <c r="R16">
-        <v>428.660485688645</v>
+        <v>306.2888047233412</v>
       </c>
       <c r="S16">
-        <v>4.160177630578628</v>
+        <v>5.097747729088661</v>
       </c>
       <c r="T16">
-        <v>4.605335933330342</v>
+        <v>8.442030720404382</v>
       </c>
       <c r="U16">
-        <v>1.527215616738285</v>
+        <v>2.133222886349704</v>
       </c>
       <c r="V16">
-        <v>297.8014138808843</v>
+        <v>184.1842952470579</v>
       </c>
       <c r="W16">
-        <v>531.6006569113781</v>
+        <v>790.0625082968544</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>267.3117152880083</v>
+        <v>539.9053947853201</v>
       </c>
       <c r="Z16">
-        <v>1.988691952160115</v>
+        <v>1.463335087827754</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>767.1547838197075</v>
+        <v>492.0410776831582</v>
       </c>
       <c r="H17">
-        <v>252.8176585346766</v>
+        <v>154.3478577500618</v>
       </c>
       <c r="I17">
-        <v>514.3371252850309</v>
+        <v>337.6932199330963</v>
       </c>
       <c r="J17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K17">
-        <v>909.1310308272384</v>
+        <v>531.2304749017627</v>
       </c>
       <c r="L17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N17">
-        <v>0.5657458692362796</v>
+        <v>0.6356811890273123</v>
       </c>
       <c r="O17">
-        <v>1052.346607257195</v>
+        <v>633.5311703956719</v>
       </c>
       <c r="P17">
-        <v>143.2155764299567</v>
+        <v>102.300695493909</v>
       </c>
       <c r="Q17">
-        <v>1.994426791048608</v>
+        <v>1.823392730510275</v>
       </c>
       <c r="R17">
-        <v>623.4980482998632</v>
+        <v>344.696130412024</v>
       </c>
       <c r="S17">
-        <v>7.347989886923177</v>
+        <v>6.192833463516311</v>
       </c>
       <c r="T17">
-        <v>3.034419305463523</v>
+        <v>3.187871116941116</v>
       </c>
       <c r="U17">
-        <v>1.11002007357358</v>
+        <v>1.159353332551504</v>
       </c>
       <c r="V17">
-        <v>233.704449357669</v>
+        <v>158.7495166783766</v>
       </c>
       <c r="W17">
-        <v>602.5539348094803</v>
+        <v>779.1978401614149</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>207.7600292672728</v>
+        <v>585.6605851927485</v>
       </c>
       <c r="Z17">
-        <v>2.900239939966148</v>
+        <v>1.33045975751462</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G18">
-        <v>925.4322110269831</v>
+        <v>291.5481272927065</v>
       </c>
       <c r="H18">
-        <v>154.8566342283431</v>
+        <v>91.15084001491914</v>
       </c>
       <c r="I18">
-        <v>770.57557679864</v>
+        <v>200.3972872777873</v>
       </c>
       <c r="J18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K18">
-        <v>834.2549985957237</v>
+        <v>535.7339030297123</v>
       </c>
       <c r="L18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M18">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N18">
-        <v>0.9236691156729377</v>
+        <v>0.3740612385075676</v>
       </c>
       <c r="O18">
-        <v>948.7061235429094</v>
+        <v>587.2049647591274</v>
       </c>
       <c r="P18">
-        <v>114.4511249471861</v>
+        <v>51.4710617294152</v>
       </c>
       <c r="Q18">
-        <v>2.114951205536611</v>
+        <v>2.434354190662392</v>
       </c>
       <c r="R18">
-        <v>592.1964539136509</v>
+        <v>410.4351082108677</v>
       </c>
       <c r="S18">
-        <v>8.289181290098229</v>
+        <v>11.40844865112906</v>
       </c>
       <c r="T18">
-        <v>5.976057891471357</v>
+        <v>3.198523757378289</v>
       </c>
       <c r="U18">
-        <v>1.787761135111465</v>
+        <v>1.162689377542902</v>
       </c>
       <c r="V18">
-        <v>493.7289046110364</v>
+        <v>94.4171738383283</v>
       </c>
       <c r="W18">
-        <v>342.4455598725203</v>
+        <v>912.623849393373</v>
       </c>
       <c r="X18">
         <v>1113.02113667116</v>
       </c>
       <c r="Y18">
-        <v>278.7661380754366</v>
+        <v>577.287233641448</v>
       </c>
       <c r="Z18">
-        <v>1.228433131214278</v>
+        <v>1.580883477427117</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19">
-        <v>530.5745442259258</v>
+        <v>422.1329365308514</v>
       </c>
       <c r="H19">
-        <v>151.0995193670936</v>
+        <v>137.739163498634</v>
       </c>
       <c r="I19">
-        <v>379.4750248588322</v>
+        <v>284.3937730322174</v>
       </c>
       <c r="J19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K19">
-        <v>787.2133246551072</v>
+        <v>477.5124348958979</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N19">
-        <v>0.4820485286184495</v>
+        <v>0.5955735437428302</v>
       </c>
       <c r="O19">
-        <v>955.0233123213148</v>
+        <v>569.5295319469429</v>
       </c>
       <c r="P19">
-        <v>167.8099876662077</v>
+        <v>92.01709705104507</v>
       </c>
       <c r="Q19">
-        <v>1.738903437475937</v>
+        <v>1.8228362401689</v>
       </c>
       <c r="R19">
-        <v>495.407960259544</v>
+        <v>309.7803356761141</v>
       </c>
       <c r="S19">
-        <v>5.691099353519768</v>
+        <v>6.189388170233247</v>
       </c>
       <c r="T19">
-        <v>3.511424433699913</v>
+        <v>3.064727023226317</v>
       </c>
       <c r="U19">
-        <v>1.256021776721401</v>
+        <v>1.119958502852967</v>
       </c>
       <c r="V19">
-        <v>189.6907380816255</v>
+        <v>130.1316256960673</v>
       </c>
       <c r="W19">
-        <v>662.3745982955965</v>
+        <v>757.4558501222111</v>
       </c>
       <c r="X19">
         <v>1041.849623154429</v>
       </c>
       <c r="Y19">
-        <v>254.6362984993215</v>
+        <v>564.3371882585307</v>
       </c>
       <c r="Z19">
-        <v>2.601257566966092</v>
+        <v>1.342204387521614</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20">
-        <v>921.9042586607327</v>
+        <v>329.2918348966196</v>
       </c>
       <c r="H20">
-        <v>178.689431309205</v>
+        <v>70.03959705024039</v>
       </c>
       <c r="I20">
-        <v>743.2148273515277</v>
+        <v>259.2522378463792</v>
       </c>
       <c r="J20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K20">
-        <v>879.1030524340025</v>
+        <v>535.7216796635391</v>
       </c>
       <c r="L20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N20">
-        <v>0.8454240094989587</v>
+        <v>0.4839308314145566</v>
       </c>
       <c r="O20">
-        <v>1027.540691428226</v>
+        <v>596.1580166967849</v>
       </c>
       <c r="P20">
-        <v>148.4376389942236</v>
+        <v>60.43633703324576</v>
       </c>
       <c r="Q20">
-        <v>1.934758617338814</v>
+        <v>2.28891523005202</v>
       </c>
       <c r="R20">
-        <v>591.9120512525005</v>
+        <v>397.388027379586</v>
       </c>
       <c r="S20">
-        <v>6.922372912898546</v>
+        <v>9.86423145348536</v>
       </c>
       <c r="T20">
-        <v>5.159254534004675</v>
+        <v>4.70150955694982</v>
       </c>
       <c r="U20">
-        <v>1.640792098902521</v>
+        <v>1.547883639477759</v>
       </c>
       <c r="V20">
-        <v>450.0226203019994</v>
+        <v>150.8390914566974</v>
       </c>
       <c r="W20">
-        <v>321.321391398905</v>
+        <v>805.2839809040535</v>
       </c>
       <c r="X20">
         <v>1064.536218750433</v>
       </c>
       <c r="Y20">
-        <v>185.4331663164302</v>
+        <v>528.8145390868935</v>
       </c>
       <c r="Z20">
-        <v>1.732815104125386</v>
+        <v>1.5228098347949</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>811.8287454751836</v>
+        <v>221.4386360112854</v>
       </c>
       <c r="H21">
-        <v>206.7697667942595</v>
+        <v>81.235189881544</v>
       </c>
       <c r="I21">
-        <v>605.058978680924</v>
+        <v>140.2034461297414</v>
       </c>
       <c r="J21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K21">
-        <v>743.7606768681932</v>
+        <v>447.0576688914981</v>
       </c>
       <c r="L21">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N21">
-        <v>0.8135129988704023</v>
+        <v>0.313613781589706</v>
       </c>
       <c r="O21">
-        <v>912.6283812662734</v>
+        <v>520.7135389543884</v>
       </c>
       <c r="P21">
-        <v>168.8677043980802</v>
+        <v>73.65587006289044</v>
       </c>
       <c r="Q21">
-        <v>1.687213173207651</v>
+        <v>1.955796219403232</v>
       </c>
       <c r="R21">
-        <v>458.8448614784166</v>
+        <v>303.0017966856411</v>
       </c>
       <c r="S21">
-        <v>5.404398576502759</v>
+        <v>7.069545692825046</v>
       </c>
       <c r="T21">
-        <v>3.926244915113586</v>
+        <v>2.725895468874807</v>
       </c>
       <c r="U21">
-        <v>1.367683476769871</v>
+        <v>1.00279698656509</v>
       </c>
       <c r="V21">
-        <v>322.2633851408558</v>
+        <v>58.74104251348616</v>
       </c>
       <c r="W21">
-        <v>392.1589845597048</v>
+        <v>857.0145171108875</v>
       </c>
       <c r="X21">
         <v>997.2179632406288</v>
       </c>
       <c r="Y21">
-        <v>253.4572863724356</v>
+        <v>550.1602943491307</v>
       </c>
       <c r="Z21">
-        <v>1.547238945750638</v>
+        <v>1.557754214387248</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G22">
-        <v>800.6817328654313</v>
+        <v>232.2128615256973</v>
       </c>
       <c r="H22">
-        <v>82.44692005514291</v>
+        <v>14.30960463906974</v>
       </c>
       <c r="I22">
-        <v>718.2348128102884</v>
+        <v>217.9032568866276</v>
       </c>
       <c r="J22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K22">
-        <v>1000.729360832908</v>
+        <v>644.5780598555782</v>
       </c>
       <c r="L22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M22">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N22">
-        <v>0.7177113422679041</v>
+        <v>0.338055652926583</v>
       </c>
       <c r="O22">
-        <v>1036.769731819194</v>
+        <v>669.3754609036663</v>
       </c>
       <c r="P22">
-        <v>36.04037098628621</v>
+        <v>24.79740104808792</v>
       </c>
       <c r="Q22">
-        <v>3.359225404900346</v>
+        <v>3.295606278528671</v>
       </c>
       <c r="R22">
-        <v>879.6616310137418</v>
+        <v>562.8555892703064</v>
       </c>
       <c r="S22">
-        <v>28.7668995475573</v>
+        <v>26.99377485590493</v>
       </c>
       <c r="T22">
-        <v>9.711481427443401</v>
+        <v>16.22776221864878</v>
       </c>
       <c r="U22">
-        <v>2.273308837858978</v>
+        <v>2.786723492701035</v>
       </c>
       <c r="V22">
-        <v>530.8075007946794</v>
+        <v>178.0263454676682</v>
       </c>
       <c r="W22">
-        <v>318.5349190089063</v>
+        <v>818.8664749325671</v>
       </c>
       <c r="X22">
         <v>1036.769731819195</v>
       </c>
       <c r="Y22">
-        <v>36.04037098628635</v>
+        <v>392.1916719636165</v>
       </c>
       <c r="Z22">
-        <v>8.838280802661865</v>
+        <v>2.087924179605051</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>797.3891723105902</v>
+        <v>303.755593451713</v>
       </c>
       <c r="H23">
-        <v>57.90263529975165</v>
+        <v>33.31083865068108</v>
       </c>
       <c r="I23">
-        <v>739.4865370108386</v>
+        <v>270.4447548010319</v>
       </c>
       <c r="J23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K23">
-        <v>984.1184430635315</v>
+        <v>636.3213556664277</v>
       </c>
       <c r="L23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M23">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N23">
-        <v>0.7514202606637865</v>
+        <v>0.4250128530069394</v>
       </c>
       <c r="O23">
-        <v>1022.390911310949</v>
+        <v>644.405082190731</v>
       </c>
       <c r="P23">
-        <v>38.27246824741734</v>
+        <v>8.083726524303541</v>
       </c>
       <c r="Q23">
-        <v>3.285168401042013</v>
+        <v>4.37847456825939</v>
       </c>
       <c r="R23">
-        <v>858.3869397472324</v>
+        <v>600.9269646630006</v>
       </c>
       <c r="S23">
-        <v>26.71348251441663</v>
+        <v>79.71633877684279</v>
       </c>
       <c r="T23">
-        <v>13.77120692663897</v>
+        <v>9.118821553461618</v>
       </c>
       <c r="U23">
-        <v>2.622579957893004</v>
+        <v>2.210340580107973</v>
       </c>
       <c r="V23">
-        <v>587.6322461645219</v>
+        <v>196.8164563740024</v>
       </c>
       <c r="W23">
-        <v>287.4213217595242</v>
+        <v>756.4631039693309</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>42.78941570683128</v>
+        <v>390.586503103935</v>
       </c>
       <c r="Z23">
-        <v>6.717112561872111</v>
+        <v>1.93673641551315</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G24">
-        <v>747.2874044921507</v>
+        <v>496.0170565695655</v>
       </c>
       <c r="H24">
-        <v>56.38540437035817</v>
+        <v>10.44996607960312</v>
       </c>
       <c r="I24">
-        <v>690.9020001217925</v>
+        <v>485.5670904899623</v>
       </c>
       <c r="J24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K24">
-        <v>965.2294065297751</v>
+        <v>608.129293294249</v>
       </c>
       <c r="L24">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M24">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N24">
-        <v>0.715790459188087</v>
+        <v>0.7984602877122319</v>
       </c>
       <c r="O24">
-        <v>1023.306255524124</v>
+        <v>623.4004120167189</v>
       </c>
       <c r="P24">
-        <v>58.07684899434899</v>
+        <v>15.27111872246999</v>
       </c>
       <c r="Q24">
-        <v>2.869026974970488</v>
+        <v>3.709225648936593</v>
       </c>
       <c r="R24">
-        <v>798.6053601437003</v>
+        <v>551.4852680409074</v>
       </c>
       <c r="S24">
-        <v>17.61986528614344</v>
+        <v>40.82218358367189</v>
       </c>
       <c r="T24">
-        <v>13.25320644299573</v>
+        <v>47.465901113088</v>
       </c>
       <c r="U24">
-        <v>2.584239518853787</v>
+        <v>3.860011581944199</v>
       </c>
       <c r="V24">
-        <v>545.1886098613619</v>
+        <v>445.2301003917703</v>
       </c>
       <c r="W24">
-        <v>354.9745969683827</v>
+        <v>560.3095066002129</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>80.64719056040008</v>
+        <v>437.7473037959262</v>
       </c>
       <c r="Z24">
-        <v>4.40157424581985</v>
+        <v>1.279983912502689</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>600.1349763010638</v>
+        <v>578.3906809215661</v>
       </c>
       <c r="H25">
-        <v>60.70042893557181</v>
+        <v>31.24059617499097</v>
       </c>
       <c r="I25">
-        <v>539.434547365492</v>
+        <v>547.1500847465751</v>
       </c>
       <c r="J25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K25">
-        <v>959.3909234840939</v>
+        <v>677.9515171403351</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N25">
-        <v>0.5622677202391059</v>
+        <v>0.8070637367322473</v>
       </c>
       <c r="O25">
-        <v>997.8073086360793</v>
+        <v>701.7509092685725</v>
       </c>
       <c r="P25">
-        <v>38.41638515198547</v>
+        <v>23.79939212823739</v>
       </c>
       <c r="Q25">
-        <v>3.257076114899807</v>
+        <v>3.383918471436072</v>
       </c>
       <c r="R25">
-        <v>834.2658329847703</v>
+        <v>597.4163145086424</v>
       </c>
       <c r="S25">
-        <v>25.97348253065683</v>
+        <v>29.48608542131471</v>
       </c>
       <c r="T25">
-        <v>9.886832545088842</v>
+        <v>18.51407308880312</v>
       </c>
       <c r="U25">
-        <v>2.29120382589373</v>
+        <v>2.918531150395849</v>
       </c>
       <c r="V25">
-        <v>400.3574923549194</v>
+        <v>455.9734316529265</v>
       </c>
       <c r="W25">
-        <v>485.6666381736285</v>
+        <v>477.9511007925454</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>65.71026205502653</v>
+        <v>347.1496683987854</v>
       </c>
       <c r="Z25">
-        <v>7.391031826458486</v>
+        <v>1.376786856796023</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>788.6343560362251</v>
+        <v>273.1180761724516</v>
       </c>
       <c r="H26">
-        <v>97.82214944739735</v>
+        <v>21.27576668023406</v>
       </c>
       <c r="I26">
-        <v>690.8122065888277</v>
+        <v>251.8423094922175</v>
       </c>
       <c r="J26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K26">
-        <v>958.7965423827778</v>
+        <v>638.7183667834788</v>
       </c>
       <c r="L26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M26">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N26">
-        <v>0.7204992676256822</v>
+        <v>0.3942932011810933</v>
       </c>
       <c r="O26">
-        <v>998.7501822846477</v>
+        <v>680.5706999701894</v>
       </c>
       <c r="P26">
-        <v>39.95363990186998</v>
+        <v>41.8523331867104</v>
       </c>
       <c r="Q26">
-        <v>3.218784900095323</v>
+        <v>2.788784164289214</v>
       </c>
       <c r="R26">
-        <v>830.1943695627926</v>
+        <v>522.0012427538251</v>
       </c>
       <c r="S26">
-        <v>24.99772698401636</v>
+        <v>16.26123678539133</v>
       </c>
       <c r="T26">
-        <v>8.061920132518694</v>
+        <v>12.83704978895957</v>
       </c>
       <c r="U26">
-        <v>2.087151757987343</v>
+        <v>2.552335504646297</v>
       </c>
       <c r="V26">
-        <v>486.6425353995918</v>
+        <v>197.5394148056855</v>
       </c>
       <c r="W26">
-        <v>312.9224128668568</v>
+        <v>751.892309963467</v>
       </c>
       <c r="X26">
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>44.93807707290671</v>
+        <v>365.0162526722057</v>
       </c>
       <c r="Z26">
-        <v>6.963413506972656</v>
+        <v>2.059887209018844</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G27">
-        <v>393.7178882160824</v>
+        <v>320.319552057408</v>
       </c>
       <c r="H27">
-        <v>60.43107451925454</v>
+        <v>25.75302412959692</v>
       </c>
       <c r="I27">
-        <v>333.2868136968278</v>
+        <v>294.5665279278111</v>
       </c>
       <c r="J27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K27">
-        <v>1024.121202969384</v>
+        <v>663.2754464175723</v>
       </c>
       <c r="L27">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M27">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N27">
-        <v>0.3254368845508527</v>
+        <v>0.4441088985259429</v>
       </c>
       <c r="O27">
-        <v>1062.715931400235</v>
+        <v>690.9750963363987</v>
       </c>
       <c r="P27">
-        <v>38.59472843085153</v>
+        <v>27.69964991882632</v>
       </c>
       <c r="Q27">
-        <v>3.315467411707961</v>
+        <v>3.216684008280148</v>
       </c>
       <c r="R27">
-        <v>896.1616385931768</v>
+        <v>574.1744254887252</v>
       </c>
       <c r="S27">
-        <v>27.5352612806761</v>
+        <v>24.94526459219874</v>
       </c>
       <c r="T27">
-        <v>6.51515617334648</v>
+        <v>12.4381334963018</v>
       </c>
       <c r="U27">
-        <v>1.874131181639689</v>
+        <v>2.520767035563624</v>
       </c>
       <c r="V27">
-        <v>220.0310526003012</v>
+        <v>229.6491536358486</v>
       </c>
       <c r="W27">
-        <v>746.6736226384043</v>
+        <v>785.393908407421</v>
       </c>
       <c r="X27">
         <v>1079.960436335232</v>
       </c>
       <c r="Y27">
-        <v>55.83923336584803</v>
+        <v>416.6849899176598</v>
       </c>
       <c r="Z27">
-        <v>13.37184588023157</v>
+        <v>1.884862491837349</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G28">
-        <v>893.2594185699019</v>
+        <v>533.1038226465827</v>
       </c>
       <c r="H28">
-        <v>75.25577856721306</v>
+        <v>7.602980510863082</v>
       </c>
       <c r="I28">
-        <v>818.0036400026888</v>
+        <v>525.5008421357196</v>
       </c>
       <c r="J28">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K28">
-        <v>1008.36401857119</v>
+        <v>695.8117986410916</v>
       </c>
       <c r="L28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="N28">
-        <v>0.8112185926286479</v>
+        <v>0.7552341641260089</v>
       </c>
       <c r="O28">
-        <v>1050.433754446795</v>
+        <v>730.0040201670332</v>
       </c>
       <c r="P28">
-        <v>42.06973587560447</v>
+        <v>34.19222152594156</v>
       </c>
       <c r="Q28">
-        <v>3.217629837952286</v>
+        <v>3.061051863767357</v>
       </c>
       <c r="R28">
-        <v>872.9991811430734</v>
+        <v>591.1476352127619</v>
       </c>
       <c r="S28">
-        <v>24.96886972508718</v>
+        <v>21.3500026493798</v>
       </c>
       <c r="T28">
-        <v>11.86964556844106</v>
+        <v>70.11774157317487</v>
       </c>
       <c r="U28">
-        <v>2.473984348735257</v>
+        <v>4.250175851507745</v>
       </c>
       <c r="V28">
-        <v>631.8220216755175</v>
+        <v>493.1868379689653</v>
       </c>
       <c r="W28">
-        <v>240.4091111474136</v>
+        <v>532.9119090143828</v>
       </c>
       <c r="X28">
         <v>1058.412751150102</v>
       </c>
       <c r="Y28">
-        <v>50.048732578912</v>
+        <v>362.6009525090108</v>
       </c>
       <c r="Z28">
-        <v>4.803500483620835</v>
+        <v>1.469692523770024</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G29">
-        <v>714.6808438473813</v>
+        <v>280.4555667468415</v>
       </c>
       <c r="H29">
-        <v>57.32190435038468</v>
+        <v>23.82774833209597</v>
       </c>
       <c r="I29">
-        <v>657.3589394969966</v>
+        <v>256.6278184147455</v>
       </c>
       <c r="J29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K29">
-        <v>946.7134328577694</v>
+        <v>578.3340644272032</v>
       </c>
       <c r="L29">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N29">
-        <v>0.694358943986544</v>
+        <v>0.4437363008677628</v>
       </c>
       <c r="O29">
-        <v>991.5843171570513</v>
+        <v>606.8227363160931</v>
       </c>
       <c r="P29">
-        <v>44.87088429928183</v>
+        <v>28.48867188889009</v>
       </c>
       <c r="Q29">
-        <v>3.095514856518031</v>
+        <v>3.058730185304895</v>
       </c>
       <c r="R29">
-        <v>807.814943884241</v>
+        <v>491.194903781408</v>
       </c>
       <c r="S29">
-        <v>22.09861322418649</v>
+        <v>21.30049230384586</v>
       </c>
       <c r="T29">
-        <v>12.46784893046885</v>
+        <v>11.77012459750836</v>
       </c>
       <c r="U29">
-        <v>2.523153245250745</v>
+        <v>2.465564507240653</v>
       </c>
       <c r="V29">
-        <v>512.7269905113708</v>
+        <v>197.878967839667</v>
       </c>
       <c r="W29">
-        <v>334.2253776600546</v>
+        <v>734.9564987423057</v>
       </c>
       <c r="X29">
         <v>991.5843171570513</v>
       </c>
       <c r="Y29">
-        <v>44.8708842992819</v>
+        <v>413.2502527298481</v>
       </c>
       <c r="Z29">
-        <v>7.448602426259816</v>
+        <v>1.778478038155648</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G30">
-        <v>937.8385753467558</v>
+        <v>496.3102909814819</v>
       </c>
       <c r="H30">
-        <v>54.3173864935312</v>
+        <v>33.34915464628855</v>
       </c>
       <c r="I30">
-        <v>883.5211888532245</v>
+        <v>462.9611363351934</v>
       </c>
       <c r="J30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K30">
-        <v>1017.159542863194</v>
+        <v>649.8648544697025</v>
       </c>
       <c r="L30">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M30">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N30">
-        <v>0.868616133085876</v>
+        <v>0.7123960207279946</v>
       </c>
       <c r="O30">
-        <v>1055.333187833389</v>
+        <v>664.6292723477798</v>
       </c>
       <c r="P30">
-        <v>38.17364497019444</v>
+        <v>14.764417878077</v>
       </c>
       <c r="Q30">
-        <v>3.319466458641325</v>
+        <v>3.807009311392282</v>
       </c>
       <c r="R30">
-        <v>890.4434087805516</v>
+        <v>593.6565781305769</v>
       </c>
       <c r="S30">
-        <v>27.64559655378419</v>
+        <v>45.01560967971903</v>
       </c>
       <c r="T30">
-        <v>17.26590021886354</v>
+        <v>14.88224502976169</v>
       </c>
       <c r="U30">
-        <v>2.848733470743205</v>
+        <v>2.700168893680386</v>
       </c>
       <c r="V30">
-        <v>728.7854319058073</v>
+        <v>372.9127863287483</v>
       </c>
       <c r="W30">
-        <v>181.791422932345</v>
+        <v>602.3514754503761</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>48.15306892237595</v>
+        <v>415.447757315867</v>
       </c>
       <c r="Z30">
-        <v>3.775282178284372</v>
+        <v>1.449885009229705</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>927.0397313164822</v>
+        <v>298.5547293442565</v>
       </c>
       <c r="H31">
-        <v>47.73951206351998</v>
+        <v>38.74813868638047</v>
       </c>
       <c r="I31">
-        <v>879.3002192529622</v>
+        <v>259.8065906578761</v>
       </c>
       <c r="J31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="K31">
-        <v>1138.749949157878</v>
+        <v>779.614522362009</v>
       </c>
       <c r="L31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M31">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="N31">
-        <v>0.7721626858497052</v>
+        <v>0.3332500655205042</v>
       </c>
       <c r="O31">
-        <v>1178.020423444158</v>
+        <v>803.4367744481551</v>
       </c>
       <c r="P31">
-        <v>39.27047428628014</v>
+        <v>23.82225208614589</v>
       </c>
       <c r="Q31">
-        <v>3.40111775536048</v>
+        <v>3.518278388924488</v>
       </c>
       <c r="R31">
-        <v>1005.186441801383</v>
+        <v>695.8012076718109</v>
       </c>
       <c r="S31">
-        <v>29.99761130605242</v>
+        <v>33.72631485649516</v>
       </c>
       <c r="T31">
-        <v>19.41870981175941</v>
+        <v>7.705008278222023</v>
       </c>
       <c r="U31">
-        <v>2.966237024598503</v>
+        <v>2.041870543167611</v>
       </c>
       <c r="V31">
-        <v>737.6935110338823</v>
+        <v>180.6879076715825</v>
       </c>
       <c r="W31">
-        <v>301.5717601620057</v>
+        <v>921.0653887570918</v>
       </c>
       <c r="X31">
         <v>1180.871979414968</v>
       </c>
       <c r="Y31">
-        <v>42.12203025709005</v>
+        <v>401.2574570529589</v>
       </c>
       <c r="Z31">
-        <v>7.159478266393503</v>
+        <v>2.29544740556816</v>
       </c>
     </row>
   </sheetData>

--- a/results/DeterministicUSM/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
+++ b/results/DeterministicUSM/dataset_10/results_excel_13-9-22_synthetic_constrained_1_.xlsx
@@ -639,67 +639,67 @@
         <v>50</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2">
-        <v>288.4089241967039</v>
+        <v>476.2707957416411</v>
       </c>
       <c r="H2">
-        <v>83.22562476258535</v>
+        <v>130.2604083171931</v>
       </c>
       <c r="I2">
-        <v>205.1832994341186</v>
+        <v>346.010387424448</v>
       </c>
       <c r="J2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K2">
-        <v>400.6887490636194</v>
+        <v>616.4973927706617</v>
       </c>
       <c r="L2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M2">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N2">
-        <v>0.5120765180295606</v>
+        <v>0.5612519882191369</v>
       </c>
       <c r="O2">
-        <v>472.2826626326101</v>
+        <v>746.1224678182858</v>
       </c>
       <c r="P2">
-        <v>71.59391356899059</v>
+        <v>129.6250750476243</v>
       </c>
       <c r="Q2">
-        <v>1.886567603515629</v>
+        <v>1.750243507197239</v>
       </c>
       <c r="R2">
-        <v>265.6219911154639</v>
+        <v>389.6219467986023</v>
       </c>
       <c r="S2">
-        <v>6.596687331214278</v>
+        <v>5.756004133800195</v>
       </c>
       <c r="T2">
-        <v>3.465386111782728</v>
+        <v>3.656297426781352</v>
       </c>
       <c r="U2">
-        <v>1.242824058405713</v>
+        <v>1.296451003341279</v>
       </c>
       <c r="V2">
-        <v>101.7484907033313</v>
+        <v>177.1341503659783</v>
       </c>
       <c r="W2">
-        <v>739.1105373834474</v>
+        <v>598.283449393118</v>
       </c>
       <c r="X2">
         <v>944.293836817566</v>
       </c>
       <c r="Y2">
-        <v>543.6050877539466</v>
+        <v>327.7964440469043</v>
       </c>
       <c r="Z2">
-        <v>1.359646099776743</v>
+        <v>1.825167600986879</v>
       </c>
     </row>
     <row r="3" spans="1:26">
@@ -719,67 +719,67 @@
         <v>50</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
-        <v>344.7836914266927</v>
+        <v>601.9161136723886</v>
       </c>
       <c r="H3">
-        <v>116.2708806015357</v>
+        <v>166.5370294794644</v>
       </c>
       <c r="I3">
-        <v>228.512810825157</v>
+        <v>435.3790841929243</v>
       </c>
       <c r="J3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K3">
-        <v>508.6532771735046</v>
+        <v>771.2411531845593</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N3">
-        <v>0.4492506410161395</v>
+        <v>0.5645174435974857</v>
       </c>
       <c r="O3">
-        <v>551.4561814957559</v>
+        <v>874.1214368550305</v>
       </c>
       <c r="P3">
-        <v>42.80290432225114</v>
+        <v>102.8802836704712</v>
       </c>
       <c r="Q3">
-        <v>2.555956423938099</v>
+        <v>2.139653291993667</v>
       </c>
       <c r="R3">
-        <v>399.2509189078392</v>
+        <v>551.1130155477933</v>
       </c>
       <c r="S3">
-        <v>12.88361596549608</v>
+        <v>8.496491316595405</v>
       </c>
       <c r="T3">
-        <v>2.96534858636083</v>
+        <v>3.614307974351198</v>
       </c>
       <c r="U3">
-        <v>1.086994592608642</v>
+        <v>1.284900405570594</v>
       </c>
       <c r="V3">
-        <v>102.1269923334426</v>
+        <v>221.3955874722386</v>
       </c>
       <c r="W3">
-        <v>726.7276198214564</v>
+        <v>519.8613464536891</v>
       </c>
       <c r="X3">
         <v>955.2404306466134</v>
       </c>
       <c r="Y3">
-        <v>446.5871534731088</v>
+        <v>183.9992774620541</v>
       </c>
       <c r="Z3">
-        <v>1.627291815650528</v>
+        <v>2.825344499305978</v>
       </c>
     </row>
     <row r="4" spans="1:26">
@@ -799,67 +799,67 @@
         <v>50</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>373.2072957644382</v>
+        <v>604.6131942750238</v>
       </c>
       <c r="H4">
-        <v>90.48582340129757</v>
+        <v>129.5708901070414</v>
       </c>
       <c r="I4">
-        <v>282.7214723631406</v>
+        <v>475.0423041679825</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K4">
-        <v>551.9463488449119</v>
+        <v>863.4241931265074</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M4">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N4">
-        <v>0.5122263657596562</v>
+        <v>0.5501841481275012</v>
       </c>
       <c r="O4">
-        <v>614.5437998655553</v>
+        <v>975.083131777721</v>
       </c>
       <c r="P4">
-        <v>62.59745102064366</v>
+        <v>111.6589386512137</v>
       </c>
       <c r="Q4">
-        <v>2.284155644951589</v>
+        <v>2.167073696071329</v>
       </c>
       <c r="R4">
-        <v>408.9640277365278</v>
+        <v>621.4510442442198</v>
       </c>
       <c r="S4">
-        <v>9.817393357804432</v>
+        <v>8.732692102900639</v>
       </c>
       <c r="T4">
-        <v>4.124483612303476</v>
+        <v>4.666273371862611</v>
       </c>
       <c r="U4">
-        <v>1.416940827054234</v>
+        <v>1.540360759937593</v>
       </c>
       <c r="V4">
-        <v>154.5084149162227</v>
+        <v>275.4563894169099</v>
       </c>
       <c r="W4">
-        <v>842.9870822555878</v>
+        <v>650.6662504507459</v>
       </c>
       <c r="X4">
         <v>1125.708554618728</v>
       </c>
       <c r="Y4">
-        <v>573.7622057738165</v>
+        <v>262.284361492221</v>
       </c>
       <c r="Z4">
-        <v>1.469227275293735</v>
+        <v>2.480766473261669</v>
       </c>
     </row>
     <row r="5" spans="1:26">
@@ -879,67 +879,67 @@
         <v>50</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G5">
-        <v>543.5540785108454</v>
+        <v>549.6860494784482</v>
       </c>
       <c r="H5">
-        <v>156.4093641492395</v>
+        <v>97.68320152685706</v>
       </c>
       <c r="I5">
-        <v>387.1447143616059</v>
+        <v>452.0028479515912</v>
       </c>
       <c r="J5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K5">
-        <v>476.1118330288332</v>
+        <v>720.2451290567108</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M5">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N5">
-        <v>0.8131381904514868</v>
+        <v>0.6275680733079992</v>
       </c>
       <c r="O5">
-        <v>545.1922215644006</v>
+        <v>864.4555562860764</v>
       </c>
       <c r="P5">
-        <v>69.08038853556735</v>
+        <v>144.2104272293659</v>
       </c>
       <c r="Q5">
-        <v>2.06586755490551</v>
+        <v>1.790826360949313</v>
       </c>
       <c r="R5">
-        <v>333.4008996729381</v>
+        <v>461.9892944505995</v>
       </c>
       <c r="S5">
-        <v>7.892141794826443</v>
+        <v>5.994403961588468</v>
       </c>
       <c r="T5">
-        <v>3.47520163813343</v>
+        <v>5.627232122683012</v>
       </c>
       <c r="U5">
-        <v>1.245652502695487</v>
+        <v>1.727617691187845</v>
       </c>
       <c r="V5">
-        <v>192.3129984640958</v>
+        <v>283.2436208619254</v>
       </c>
       <c r="W5">
-        <v>658.0481793273406</v>
+        <v>593.1900457373553</v>
       </c>
       <c r="X5">
         <v>1045.192893688946</v>
       </c>
       <c r="Y5">
-        <v>569.0810606601133</v>
+        <v>324.9477646322357</v>
       </c>
       <c r="Z5">
-        <v>1.156334703115983</v>
+        <v>1.825493541734951</v>
       </c>
     </row>
     <row r="6" spans="1:26">
@@ -959,67 +959,67 @@
         <v>50</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6">
-        <v>371.8649387177683</v>
+        <v>655.6083450314114</v>
       </c>
       <c r="H6">
-        <v>153.4614024118252</v>
+        <v>248.1450018836693</v>
       </c>
       <c r="I6">
-        <v>218.4035363059432</v>
+        <v>407.4633431477421</v>
       </c>
       <c r="J6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K6">
-        <v>566.3086402329884</v>
+        <v>840.0492253866362</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N6">
-        <v>0.385661670667939</v>
+        <v>0.4850469839552621</v>
       </c>
       <c r="O6">
-        <v>619.4099554160166</v>
+        <v>956.0829424484776</v>
       </c>
       <c r="P6">
-        <v>53.10131518302816</v>
+        <v>116.0337170618416</v>
       </c>
       <c r="Q6">
-        <v>2.456565644103617</v>
+        <v>2.108963855973431</v>
       </c>
       <c r="R6">
-        <v>435.8617736976437</v>
+        <v>595.3383100289645</v>
       </c>
       <c r="S6">
-        <v>11.66468200045614</v>
+        <v>8.239699344794078</v>
       </c>
       <c r="T6">
-        <v>2.423182200041682</v>
+        <v>2.642037276812698</v>
       </c>
       <c r="U6">
-        <v>0.8850816350624789</v>
+        <v>0.9715503153165322</v>
       </c>
       <c r="V6">
-        <v>82.57766734030389</v>
+        <v>166.3779883234417</v>
       </c>
       <c r="W6">
-        <v>809.6251559419027</v>
+        <v>620.5653491001037</v>
       </c>
       <c r="X6">
         <v>1028.028692247846</v>
       </c>
       <c r="Y6">
-        <v>461.7200520148574</v>
+        <v>187.9794668612096</v>
       </c>
       <c r="Z6">
-        <v>1.753497931070688</v>
+        <v>3.301240074046407</v>
       </c>
     </row>
     <row r="7" spans="1:26">
@@ -1039,67 +1039,67 @@
         <v>50</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>402.4150713709755</v>
+        <v>592.6768284527132</v>
       </c>
       <c r="H7">
-        <v>73.15431342437509</v>
+        <v>125.2981664834882</v>
       </c>
       <c r="I7">
-        <v>329.2607579466004</v>
+        <v>467.378661969225</v>
       </c>
       <c r="J7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K7">
-        <v>536.5660016271825</v>
+        <v>856.767311766205</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M7">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N7">
-        <v>0.6136444667535567</v>
+        <v>0.5455141151519136</v>
       </c>
       <c r="O7">
-        <v>588.9215173437891</v>
+        <v>953.794721103137</v>
       </c>
       <c r="P7">
-        <v>52.3555157166066</v>
+        <v>97.02740933693227</v>
       </c>
       <c r="Q7">
-        <v>2.420235633409122</v>
+        <v>2.285454962181948</v>
       </c>
       <c r="R7">
-        <v>409.8533168843398</v>
+        <v>635.0155376294539</v>
       </c>
       <c r="S7">
-        <v>11.24850952727775</v>
+        <v>9.830157556727499</v>
       </c>
       <c r="T7">
-        <v>5.500906953176194</v>
+        <v>4.730131693753207</v>
       </c>
       <c r="U7">
-        <v>1.704912979221309</v>
+        <v>1.553953044347376</v>
       </c>
       <c r="V7">
-        <v>204.5390195033597</v>
+        <v>272.6711947110642</v>
       </c>
       <c r="W7">
-        <v>721.2975575125121</v>
+        <v>583.1796534898874</v>
       </c>
       <c r="X7">
         <v>1050.558315459112</v>
       </c>
       <c r="Y7">
-        <v>513.99231383193</v>
+        <v>193.7910036929075</v>
       </c>
       <c r="Z7">
-        <v>1.403323625863341</v>
+        <v>3.009322633025979</v>
       </c>
     </row>
     <row r="8" spans="1:26">
@@ -1119,67 +1119,67 @@
         <v>50</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>570.0072008303523</v>
+        <v>670.6337500659303</v>
       </c>
       <c r="H8">
-        <v>156.2642108933312</v>
+        <v>134.1707086343419</v>
       </c>
       <c r="I8">
-        <v>413.7429899370212</v>
+        <v>536.4630414315884</v>
       </c>
       <c r="J8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K8">
-        <v>522.2771770554918</v>
+        <v>829.2238669710372</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N8">
-        <v>0.7921904462102525</v>
+        <v>0.6469459729749021</v>
       </c>
       <c r="O8">
-        <v>658.9055008379647</v>
+        <v>939.3028220279808</v>
       </c>
       <c r="P8">
-        <v>136.6283237824729</v>
+        <v>110.0789550569435</v>
       </c>
       <c r="Q8">
-        <v>1.573315852424747</v>
+        <v>2.143940039829358</v>
       </c>
       <c r="R8">
-        <v>307.317669358306</v>
+        <v>593.2211876818798</v>
       </c>
       <c r="S8">
-        <v>4.822612783327515</v>
+        <v>8.532991810669737</v>
       </c>
       <c r="T8">
-        <v>3.647714326727377</v>
+        <v>4.998361839867909</v>
       </c>
       <c r="U8">
-        <v>1.29410075958635</v>
+        <v>1.609110226724584</v>
       </c>
       <c r="V8">
-        <v>211.5213559237997</v>
+        <v>320.5675820411844</v>
       </c>
       <c r="W8">
-        <v>688.6357258427277</v>
+        <v>565.9156743481603</v>
       </c>
       <c r="X8">
         <v>1102.378715779749</v>
       </c>
       <c r="Y8">
-        <v>580.1015387242569</v>
+        <v>273.1548488087116</v>
       </c>
       <c r="Z8">
-        <v>1.187095154681293</v>
+        <v>2.071776052360935</v>
       </c>
     </row>
     <row r="9" spans="1:26">
@@ -1199,67 +1199,67 @@
         <v>50</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9">
-        <v>381.9463357427989</v>
+        <v>500.0379466279714</v>
       </c>
       <c r="H9">
-        <v>38.78169004164758</v>
+        <v>205.2331998319237</v>
       </c>
       <c r="I9">
-        <v>343.1646457011514</v>
+        <v>294.8047467960477</v>
       </c>
       <c r="J9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K9">
-        <v>440.1285578452625</v>
+        <v>704.7332243495372</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M9">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N9">
-        <v>0.7796918413592214</v>
+        <v>0.4183210562665752</v>
       </c>
       <c r="O9">
-        <v>563.1137811743922</v>
+        <v>868.9779672942063</v>
       </c>
       <c r="P9">
-        <v>122.9852233291296</v>
+        <v>164.2447429446693</v>
       </c>
       <c r="Q9">
-        <v>1.521417493101302</v>
+        <v>1.665960120424794</v>
       </c>
       <c r="R9">
-        <v>253.0166876793543</v>
+        <v>431.1080326142963</v>
       </c>
       <c r="S9">
-        <v>4.578710888440661</v>
+        <v>5.29075056963587</v>
       </c>
       <c r="T9">
-        <v>9.848625352134666</v>
+        <v>2.436437901068048</v>
       </c>
       <c r="U9">
-        <v>2.287331887285935</v>
+        <v>0.8905370960355419</v>
       </c>
       <c r="V9">
-        <v>254.4580494260515</v>
+        <v>112.0369690076443</v>
       </c>
       <c r="W9">
-        <v>719.1324894120498</v>
+        <v>767.4923883171534</v>
       </c>
       <c r="X9">
         <v>1062.297135113201</v>
       </c>
       <c r="Y9">
-        <v>622.1685772679386</v>
+        <v>357.563910763664</v>
       </c>
       <c r="Z9">
-        <v>1.155848295280193</v>
+        <v>2.146448131966082</v>
       </c>
     </row>
     <row r="10" spans="1:26">
@@ -1279,67 +1279,67 @@
         <v>50</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>423.4225645306641</v>
+        <v>616.5420641692907</v>
       </c>
       <c r="H10">
-        <v>71.31800199701092</v>
+        <v>155.6909851026572</v>
       </c>
       <c r="I10">
-        <v>352.1045625336532</v>
+        <v>460.8510790666336</v>
       </c>
       <c r="J10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K10">
-        <v>392.6362359338016</v>
+        <v>631.8315273976423</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N10">
-        <v>0.8967704208355798</v>
+        <v>0.7293891790502528</v>
       </c>
       <c r="O10">
-        <v>460.4440461525583</v>
+        <v>799.3622001080968</v>
       </c>
       <c r="P10">
-        <v>67.8078102187566</v>
+        <v>167.5306727104545</v>
       </c>
       <c r="Q10">
-        <v>1.915513958307733</v>
+        <v>1.562647704670352</v>
       </c>
       <c r="R10">
-        <v>262.7494289774917</v>
+        <v>370.0401062247707</v>
       </c>
       <c r="S10">
-        <v>6.790427897127297</v>
+        <v>4.771437893582898</v>
       </c>
       <c r="T10">
-        <v>5.937106378112087</v>
+        <v>3.960037016676107</v>
       </c>
       <c r="U10">
-        <v>1.7812218729505</v>
+        <v>1.376253372868182</v>
       </c>
       <c r="V10">
-        <v>225.0713774414499</v>
+        <v>246.5808356939318</v>
       </c>
       <c r="W10">
-        <v>614.6938329628372</v>
+        <v>505.9473164298568</v>
       </c>
       <c r="X10">
         <v>966.7983954964903</v>
       </c>
       <c r="Y10">
-        <v>574.1621595626888</v>
+        <v>334.9668680988481</v>
       </c>
       <c r="Z10">
-        <v>1.070592728421914</v>
+        <v>1.510439881118489</v>
       </c>
     </row>
     <row r="11" spans="1:26">
@@ -1359,67 +1359,67 @@
         <v>50</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>289.6069656442942</v>
+        <v>577.6114715373701</v>
       </c>
       <c r="H11">
-        <v>54.23808511831534</v>
+        <v>146.607462392199</v>
       </c>
       <c r="I11">
-        <v>235.3688805259789</v>
+        <v>431.0040091451711</v>
       </c>
       <c r="J11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K11">
-        <v>391.3209032251618</v>
+        <v>669.8932766788364</v>
       </c>
       <c r="L11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M11">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N11">
-        <v>0.6014728029761043</v>
+        <v>0.6433920508681343</v>
       </c>
       <c r="O11">
-        <v>515.4063095281165</v>
+        <v>872.1470592344257</v>
       </c>
       <c r="P11">
-        <v>124.0854063029547</v>
+        <v>202.2537825555894</v>
       </c>
       <c r="Q11">
-        <v>1.423985451119811</v>
+        <v>1.461434797460967</v>
       </c>
       <c r="R11">
-        <v>214.6250899534638</v>
+        <v>374.3125609339941</v>
       </c>
       <c r="S11">
-        <v>4.153641631875316</v>
+        <v>4.312142142482385</v>
       </c>
       <c r="T11">
-        <v>5.33954996774948</v>
+        <v>3.939850414927479</v>
       </c>
       <c r="U11">
-        <v>1.675141373718362</v>
+        <v>1.371142756834678</v>
       </c>
       <c r="V11">
-        <v>144.5124201130307</v>
+        <v>229.984248988195</v>
       </c>
       <c r="W11">
-        <v>783.4140329852228</v>
+        <v>587.7789043660307</v>
       </c>
       <c r="X11">
         <v>1018.782913511202</v>
       </c>
       <c r="Y11">
-        <v>627.4620102860399</v>
+        <v>348.8896368323653</v>
       </c>
       <c r="Z11">
-        <v>1.248544167045411</v>
+        <v>1.684712993204917</v>
       </c>
     </row>
     <row r="12" spans="1:26">
@@ -1439,67 +1439,67 @@
         <v>50</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G12">
-        <v>470.3220133052571</v>
+        <v>612.753001598604</v>
       </c>
       <c r="H12">
-        <v>143.779854386638</v>
+        <v>201.8493722245608</v>
       </c>
       <c r="I12">
-        <v>326.5421589186191</v>
+        <v>410.9036293740431</v>
       </c>
       <c r="J12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K12">
-        <v>422.7617296869428</v>
+        <v>748.3445673121389</v>
       </c>
       <c r="L12">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N12">
-        <v>0.7724023628165804</v>
+        <v>0.549083466791111</v>
       </c>
       <c r="O12">
-        <v>459.1092285496929</v>
+        <v>862.8958201944826</v>
       </c>
       <c r="P12">
-        <v>36.3474988627501</v>
+        <v>114.5512528823436</v>
       </c>
       <c r="Q12">
-        <v>2.536162757911322</v>
+        <v>2.019271619330258</v>
       </c>
       <c r="R12">
-        <v>330.5785567280119</v>
+        <v>517.0344734080991</v>
       </c>
       <c r="S12">
-        <v>12.63110923486954</v>
+        <v>7.532836162698011</v>
       </c>
       <c r="T12">
-        <v>3.271125953713344</v>
+        <v>3.035694363799685</v>
       </c>
       <c r="U12">
-        <v>1.185134253994464</v>
+        <v>1.110440183780534</v>
       </c>
       <c r="V12">
-        <v>156.1437284506781</v>
+        <v>186.7619753850163</v>
       </c>
       <c r="W12">
-        <v>653.3796317284763</v>
+        <v>569.0181612730522</v>
       </c>
       <c r="X12">
         <v>979.9217906470953</v>
       </c>
       <c r="Y12">
-        <v>557.1600609601526</v>
+        <v>231.5772233349564</v>
       </c>
       <c r="Z12">
-        <v>1.172696461053775</v>
+        <v>2.457142170886196</v>
       </c>
     </row>
     <row r="13" spans="1:26">
@@ -1519,67 +1519,67 @@
         <v>50</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G13">
-        <v>347.5783907252662</v>
+        <v>663.3019667130975</v>
       </c>
       <c r="H13">
-        <v>61.07372928266435</v>
+        <v>128.7099487791473</v>
       </c>
       <c r="I13">
-        <v>286.5046614426018</v>
+        <v>534.5920179339502</v>
       </c>
       <c r="J13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K13">
-        <v>559.5363619017139</v>
+        <v>843.3131499511071</v>
       </c>
       <c r="L13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N13">
-        <v>0.512039397169559</v>
+        <v>0.633918750069229</v>
       </c>
       <c r="O13">
-        <v>602.5605061983042</v>
+        <v>943.490178526396</v>
       </c>
       <c r="P13">
-        <v>43.02414429659054</v>
+        <v>100.1770285752892</v>
       </c>
       <c r="Q13">
-        <v>2.639426632164311</v>
+        <v>2.242647048505448</v>
       </c>
       <c r="R13">
-        <v>445.9772896192123</v>
+        <v>618.6514324886887</v>
       </c>
       <c r="S13">
-        <v>14.00517119049487</v>
+        <v>9.418228828950594</v>
       </c>
       <c r="T13">
-        <v>5.691127671549043</v>
+        <v>5.153463061750212</v>
       </c>
       <c r="U13">
-        <v>1.738908413308735</v>
+        <v>1.639668927864523</v>
       </c>
       <c r="V13">
-        <v>180.3030397608367</v>
+        <v>323.5503142137479</v>
       </c>
       <c r="W13">
-        <v>787.8853862360678</v>
+        <v>539.7980297447194</v>
       </c>
       <c r="X13">
         <v>1074.39004767867</v>
       </c>
       <c r="Y13">
-        <v>514.8536857769557</v>
+        <v>231.0768977275625</v>
       </c>
       <c r="Z13">
-        <v>1.530309305345819</v>
+        <v>2.336010371669159</v>
       </c>
     </row>
     <row r="14" spans="1:26">
@@ -1599,67 +1599,67 @@
         <v>50</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G14">
-        <v>488.5288037115872</v>
+        <v>617.9456182574762</v>
       </c>
       <c r="H14">
-        <v>89.96630528991004</v>
+        <v>161.9264373758739</v>
       </c>
       <c r="I14">
-        <v>398.5624984216772</v>
+        <v>456.0191808816023</v>
       </c>
       <c r="J14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K14">
-        <v>576.3982978674983</v>
+        <v>795.4259820782245</v>
       </c>
       <c r="L14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N14">
-        <v>0.691470637398201</v>
+        <v>0.5733018422281762</v>
       </c>
       <c r="O14">
-        <v>650.3515440062891</v>
+        <v>957.4347023353964</v>
       </c>
       <c r="P14">
-        <v>73.95324613879065</v>
+        <v>162.0087202571721</v>
       </c>
       <c r="Q14">
-        <v>2.174079969029318</v>
+        <v>1.77660736020334</v>
       </c>
       <c r="R14">
-        <v>415.618026792459</v>
+        <v>507.6000972522086</v>
       </c>
       <c r="S14">
-        <v>8.794090563458859</v>
+        <v>5.909772639494763</v>
       </c>
       <c r="T14">
-        <v>5.430130782156028</v>
+        <v>3.816212029806237</v>
       </c>
       <c r="U14">
-        <v>1.69196321876741</v>
+        <v>1.339258315408868</v>
       </c>
       <c r="V14">
-        <v>246.3428189427495</v>
+        <v>239.1578531414299</v>
       </c>
       <c r="W14">
-        <v>666.2969034512532</v>
+        <v>608.8402209913281</v>
       </c>
       <c r="X14">
         <v>1064.85940187293</v>
       </c>
       <c r="Y14">
-        <v>488.4611040054322</v>
+        <v>269.433419794706</v>
       </c>
       <c r="Z14">
-        <v>1.36407361402484</v>
+        <v>2.259705649934712</v>
       </c>
     </row>
     <row r="15" spans="1:26">
@@ -1679,67 +1679,67 @@
         <v>50</v>
       </c>
       <c r="F15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G15">
-        <v>388.4520475393162</v>
+        <v>622.7820458854162</v>
       </c>
       <c r="H15">
-        <v>98.90059874439329</v>
+        <v>144.1644962851977</v>
       </c>
       <c r="I15">
-        <v>289.5514487949229</v>
+        <v>478.6175496002185</v>
       </c>
       <c r="J15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K15">
-        <v>578.1418675153641</v>
+        <v>855.0018986194123</v>
       </c>
       <c r="L15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M15">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N15">
-        <v>0.5008311368960459</v>
+        <v>0.5597853646559747</v>
       </c>
       <c r="O15">
-        <v>628.9323296970965</v>
+        <v>971.1190864791371</v>
       </c>
       <c r="P15">
-        <v>50.79046218173238</v>
+        <v>116.1171878597252</v>
       </c>
       <c r="Q15">
-        <v>2.516315082336832</v>
+        <v>2.123849182573948</v>
       </c>
       <c r="R15">
-        <v>450.3370614886124</v>
+        <v>608.3865041007488</v>
       </c>
       <c r="S15">
-        <v>12.38288258623688</v>
+        <v>8.363267354117225</v>
       </c>
       <c r="T15">
-        <v>3.927701676945992</v>
+        <v>4.319940498063954</v>
       </c>
       <c r="U15">
-        <v>1.368054439783697</v>
+        <v>1.463241628564855</v>
       </c>
       <c r="V15">
-        <v>154.2500455853897</v>
+        <v>267.6700572746337</v>
       </c>
       <c r="W15">
-        <v>857.9973244090986</v>
+        <v>668.931223603803</v>
       </c>
       <c r="X15">
         <v>1147.548773204021</v>
       </c>
       <c r="Y15">
-        <v>569.4069056886574</v>
+        <v>292.5468745846092</v>
       </c>
       <c r="Z15">
-        <v>1.506826341298779</v>
+        <v>2.286577918679276</v>
       </c>
     </row>
     <row r="16" spans="1:26">
@@ -1759,67 +1759,67 @@
         <v>50</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>292.8886347547684</v>
+        <v>834.6447715625438</v>
       </c>
       <c r="H16">
-        <v>34.69409724450028</v>
+        <v>166.100070757616</v>
       </c>
       <c r="I16">
-        <v>258.1945375102681</v>
+        <v>668.5447008049279</v>
       </c>
       <c r="J16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K16">
-        <v>508.3516510218024</v>
+        <v>727.451038638618</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M16">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N16">
-        <v>0.50790537808088</v>
+        <v>0.9190236391112591</v>
       </c>
       <c r="O16">
-        <v>632.4080070080846</v>
+        <v>938.0741452307429</v>
       </c>
       <c r="P16">
-        <v>124.0563559862822</v>
+        <v>210.6231065921253</v>
       </c>
       <c r="Q16">
-        <v>1.628798820439356</v>
+        <v>1.493758680377828</v>
       </c>
       <c r="R16">
-        <v>306.2888047233412</v>
+        <v>412.830944878486</v>
       </c>
       <c r="S16">
-        <v>5.097747729088661</v>
+        <v>4.453804525100549</v>
       </c>
       <c r="T16">
-        <v>8.442030720404382</v>
+        <v>5.024951330577768</v>
       </c>
       <c r="U16">
-        <v>2.133222886349704</v>
+        <v>1.614415768441075</v>
       </c>
       <c r="V16">
-        <v>184.1842952470579</v>
+        <v>400.3901274346544</v>
       </c>
       <c r="W16">
-        <v>790.0625082968544</v>
+        <v>379.7123450021946</v>
       </c>
       <c r="X16">
         <v>1048.257045807122</v>
       </c>
       <c r="Y16">
-        <v>539.9053947853201</v>
+        <v>320.8060071685045</v>
       </c>
       <c r="Z16">
-        <v>1.463335087827754</v>
+        <v>1.183619809222429</v>
       </c>
     </row>
     <row r="17" spans="1:26">
@@ -1839,67 +1839,67 @@
         <v>50</v>
       </c>
       <c r="F17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>492.0410776831582</v>
+        <v>629.7998286365126</v>
       </c>
       <c r="H17">
-        <v>154.3478577500618</v>
+        <v>159.7551268183937</v>
       </c>
       <c r="I17">
-        <v>337.6932199330963</v>
+        <v>470.0447018181189</v>
       </c>
       <c r="J17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K17">
-        <v>531.2304749017627</v>
+        <v>838.8259556884279</v>
       </c>
       <c r="L17">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N17">
-        <v>0.6356811890273123</v>
+        <v>0.5603602256589107</v>
       </c>
       <c r="O17">
-        <v>633.5311703956719</v>
+        <v>955.7555342169704</v>
       </c>
       <c r="P17">
-        <v>102.300695493909</v>
+        <v>116.9295785285421</v>
       </c>
       <c r="Q17">
-        <v>1.823392730510275</v>
+        <v>2.100930302334827</v>
       </c>
       <c r="R17">
-        <v>344.696130412024</v>
+        <v>593.1650609185746</v>
       </c>
       <c r="S17">
-        <v>6.192833463516311</v>
+        <v>8.17377045435663</v>
       </c>
       <c r="T17">
-        <v>3.187871116941116</v>
+        <v>3.942282424228276</v>
       </c>
       <c r="U17">
-        <v>1.159353332551504</v>
+        <v>1.371759851072393</v>
       </c>
       <c r="V17">
-        <v>158.7495166783766</v>
+        <v>250.899032845668</v>
       </c>
       <c r="W17">
-        <v>779.1978401614149</v>
+        <v>646.8463582763923</v>
       </c>
       <c r="X17">
         <v>1116.891060094511</v>
       </c>
       <c r="Y17">
-        <v>585.6605851927485</v>
+        <v>278.0651044060833</v>
       </c>
       <c r="Z17">
-        <v>1.33045975751462</v>
+        <v>2.326240682583978</v>
       </c>
     </row>
     <row r="18" spans="1:26">
@@ -1919,67 +1919,67 @@
         <v>50</v>
       </c>
       <c r="F18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G18">
-        <v>291.5481272927065</v>
+        <v>607.511455344155</v>
       </c>
       <c r="H18">
-        <v>91.15084001491914</v>
+        <v>155.4618493528811</v>
       </c>
       <c r="I18">
-        <v>200.3972872777873</v>
+        <v>452.0496059912739</v>
       </c>
       <c r="J18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K18">
-        <v>535.7339030297123</v>
+        <v>785.1077452661741</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M18">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N18">
-        <v>0.3740612385075676</v>
+        <v>0.5757803418918203</v>
       </c>
       <c r="O18">
-        <v>587.2049647591274</v>
+        <v>871.0917501615638</v>
       </c>
       <c r="P18">
-        <v>51.4710617294152</v>
+        <v>85.98400489538969</v>
       </c>
       <c r="Q18">
-        <v>2.434354190662392</v>
+        <v>2.315586020814597</v>
       </c>
       <c r="R18">
-        <v>410.4351082108677</v>
+        <v>586.0043855167559</v>
       </c>
       <c r="S18">
-        <v>11.40844865112906</v>
+        <v>10.13085807321206</v>
       </c>
       <c r="T18">
-        <v>3.198523757378289</v>
+        <v>3.907784822276053</v>
       </c>
       <c r="U18">
-        <v>1.162689377542902</v>
+        <v>1.362970671834554</v>
       </c>
       <c r="V18">
-        <v>94.4171738383283</v>
+        <v>240.1596647341352</v>
       </c>
       <c r="W18">
-        <v>912.623849393373</v>
+        <v>660.9715306798864</v>
       </c>
       <c r="X18">
         <v>1113.02113667116</v>
       </c>
       <c r="Y18">
-        <v>577.287233641448</v>
+        <v>327.9133914049862</v>
       </c>
       <c r="Z18">
-        <v>1.580883477427117</v>
+        <v>2.015689349702587</v>
       </c>
     </row>
     <row r="19" spans="1:26">
@@ -1999,67 +1999,67 @@
         <v>50</v>
       </c>
       <c r="F19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G19">
-        <v>422.1329365308514</v>
+        <v>677.0169371354725</v>
       </c>
       <c r="H19">
-        <v>137.739163498634</v>
+        <v>193.4545733206733</v>
       </c>
       <c r="I19">
-        <v>284.3937730322174</v>
+        <v>483.5623638147993</v>
       </c>
       <c r="J19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K19">
-        <v>477.5124348958979</v>
+        <v>736.5488908300896</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N19">
-        <v>0.5955735437428302</v>
+        <v>0.6565244613562925</v>
       </c>
       <c r="O19">
-        <v>569.5295319469429</v>
+        <v>857.7714374842921</v>
       </c>
       <c r="P19">
-        <v>92.01709705104507</v>
+        <v>121.2225466542023</v>
       </c>
       <c r="Q19">
-        <v>1.8228362401689</v>
+        <v>1.956709589287351</v>
       </c>
       <c r="R19">
-        <v>309.7803356761141</v>
+        <v>499.3515713539787</v>
       </c>
       <c r="S19">
-        <v>6.189388170233247</v>
+        <v>7.07600575271825</v>
       </c>
       <c r="T19">
-        <v>3.064727023226317</v>
+        <v>3.499617122068439</v>
       </c>
       <c r="U19">
-        <v>1.119958502852967</v>
+        <v>1.25265356881671</v>
       </c>
       <c r="V19">
-        <v>130.1316256960673</v>
+        <v>241.230802140744</v>
       </c>
       <c r="W19">
-        <v>757.4558501222111</v>
+        <v>558.2872593396294</v>
       </c>
       <c r="X19">
         <v>1041.849623154429</v>
       </c>
       <c r="Y19">
-        <v>564.3371882585307</v>
+        <v>305.300732324339</v>
       </c>
       <c r="Z19">
-        <v>1.342204387521614</v>
+        <v>1.828646970772831</v>
       </c>
     </row>
     <row r="20" spans="1:26">
@@ -2079,67 +2079,67 @@
         <v>50</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G20">
-        <v>329.2918348966196</v>
+        <v>711.7876447433501</v>
       </c>
       <c r="H20">
-        <v>70.03959705024039</v>
+        <v>147.427236492029</v>
       </c>
       <c r="I20">
-        <v>259.2522378463792</v>
+        <v>564.3604082513211</v>
       </c>
       <c r="J20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K20">
-        <v>535.7216796635391</v>
+        <v>803.4554347266061</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N20">
-        <v>0.4839308314145566</v>
+        <v>0.7024165670661716</v>
       </c>
       <c r="O20">
-        <v>596.1580166967849</v>
+        <v>921.0519123928294</v>
       </c>
       <c r="P20">
-        <v>60.43633703324576</v>
+        <v>117.5964776662234</v>
       </c>
       <c r="Q20">
-        <v>2.28891523005202</v>
+        <v>2.058257316716084</v>
       </c>
       <c r="R20">
-        <v>397.388027379586</v>
+        <v>561.411624150062</v>
       </c>
       <c r="S20">
-        <v>9.86423145348536</v>
+        <v>7.832308676855702</v>
       </c>
       <c r="T20">
-        <v>4.70150955694982</v>
+        <v>4.828060687292572</v>
       </c>
       <c r="U20">
-        <v>1.547883639477759</v>
+        <v>1.574444873018044</v>
       </c>
       <c r="V20">
-        <v>150.8390914566974</v>
+        <v>332.2443516132274</v>
       </c>
       <c r="W20">
-        <v>805.2839809040535</v>
+        <v>500.1758104991115</v>
       </c>
       <c r="X20">
         <v>1064.536218750433</v>
       </c>
       <c r="Y20">
-        <v>528.8145390868935</v>
+        <v>261.0807840238266</v>
       </c>
       <c r="Z20">
-        <v>1.5228098347949</v>
+        <v>1.91578944566623</v>
       </c>
     </row>
     <row r="21" spans="1:26">
@@ -2159,67 +2159,67 @@
         <v>50</v>
       </c>
       <c r="F21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G21">
-        <v>221.4386360112854</v>
+        <v>586.3679668537171</v>
       </c>
       <c r="H21">
-        <v>81.235189881544</v>
+        <v>194.4633832218335</v>
       </c>
       <c r="I21">
-        <v>140.2034461297414</v>
+        <v>391.9045836318837</v>
       </c>
       <c r="J21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K21">
-        <v>447.0576688914981</v>
+        <v>692.8004626602412</v>
       </c>
       <c r="L21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N21">
-        <v>0.313613781589706</v>
+        <v>0.5656817579581771</v>
       </c>
       <c r="O21">
-        <v>520.7135389543884</v>
+        <v>821.2667208296891</v>
       </c>
       <c r="P21">
-        <v>73.65587006289044</v>
+        <v>128.4662581694481</v>
       </c>
       <c r="Q21">
-        <v>1.955796219403232</v>
+        <v>1.855181642294783</v>
       </c>
       <c r="R21">
-        <v>303.0017966856411</v>
+        <v>454.4722188499787</v>
       </c>
       <c r="S21">
-        <v>7.069545692825046</v>
+        <v>6.392859358808688</v>
       </c>
       <c r="T21">
-        <v>2.725895468874807</v>
+        <v>3.015312996919424</v>
       </c>
       <c r="U21">
-        <v>1.00279698656509</v>
+        <v>1.103703638031201</v>
       </c>
       <c r="V21">
-        <v>58.74104251348616</v>
+        <v>177.2746401060905</v>
       </c>
       <c r="W21">
-        <v>857.0145171108875</v>
+        <v>605.3133796087452</v>
       </c>
       <c r="X21">
         <v>997.2179632406288</v>
       </c>
       <c r="Y21">
-        <v>550.1602943491307</v>
+        <v>304.4175005803876</v>
       </c>
       <c r="Z21">
-        <v>1.557754214387248</v>
+        <v>1.988431606115562</v>
       </c>
     </row>
     <row r="22" spans="1:26">
@@ -2239,67 +2239,67 @@
         <v>50</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G22">
-        <v>232.2128615256973</v>
+        <v>474.7924255993169</v>
       </c>
       <c r="H22">
-        <v>14.30960463906974</v>
+        <v>49.08556781994432</v>
       </c>
       <c r="I22">
-        <v>217.9032568866276</v>
+        <v>425.7068577793726</v>
       </c>
       <c r="J22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K22">
-        <v>644.5780598555782</v>
+        <v>982.7100157803112</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M22">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N22">
-        <v>0.338055652926583</v>
+        <v>0.4331968240308859</v>
       </c>
       <c r="O22">
-        <v>669.3754609036663</v>
+        <v>1016.867858430217</v>
       </c>
       <c r="P22">
-        <v>24.79740104808792</v>
+        <v>34.15784264990594</v>
       </c>
       <c r="Q22">
-        <v>3.295606278528671</v>
+        <v>3.393490242243627</v>
       </c>
       <c r="R22">
-        <v>562.8555892703064</v>
+        <v>866.7957100517619</v>
       </c>
       <c r="S22">
-        <v>26.99377485590493</v>
+        <v>29.76967453279773</v>
       </c>
       <c r="T22">
-        <v>16.22776221864878</v>
+        <v>9.672749989181149</v>
       </c>
       <c r="U22">
-        <v>2.786723492701035</v>
+        <v>2.269312652611986</v>
       </c>
       <c r="V22">
-        <v>178.0263454676682</v>
+        <v>314.3163576649293</v>
       </c>
       <c r="W22">
-        <v>818.8664749325671</v>
+        <v>611.0628740398221</v>
       </c>
       <c r="X22">
         <v>1036.769731819195</v>
       </c>
       <c r="Y22">
-        <v>392.1916719636165</v>
+        <v>54.05971603888349</v>
       </c>
       <c r="Z22">
-        <v>2.087924179605051</v>
+        <v>11.30347916737674</v>
       </c>
     </row>
     <row r="23" spans="1:26">
@@ -2319,67 +2319,67 @@
         <v>50</v>
       </c>
       <c r="F23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23">
-        <v>303.755593451713</v>
+        <v>598.3021850816344</v>
       </c>
       <c r="H23">
-        <v>33.31083865068108</v>
+        <v>51.56920882775198</v>
       </c>
       <c r="I23">
-        <v>270.4447548010319</v>
+        <v>546.7329762538825</v>
       </c>
       <c r="J23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K23">
-        <v>636.3213556664277</v>
+        <v>943.5230936858823</v>
       </c>
       <c r="L23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M23">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N23">
-        <v>0.4250128530069394</v>
+        <v>0.5794590295803622</v>
       </c>
       <c r="O23">
-        <v>644.405082190731</v>
+        <v>966.6805158760933</v>
       </c>
       <c r="P23">
-        <v>8.083726524303541</v>
+        <v>23.15742219021087</v>
       </c>
       <c r="Q23">
-        <v>4.37847456825939</v>
+        <v>3.73155271185724</v>
       </c>
       <c r="R23">
-        <v>600.9269646630006</v>
+        <v>857.109952112378</v>
       </c>
       <c r="S23">
-        <v>79.71633877684279</v>
+        <v>41.74387407786387</v>
       </c>
       <c r="T23">
-        <v>9.118821553461618</v>
+        <v>11.60192678309344</v>
       </c>
       <c r="U23">
-        <v>2.210340580107973</v>
+        <v>2.451171186309725</v>
       </c>
       <c r="V23">
-        <v>196.8164563740024</v>
+        <v>420.3280174745078</v>
       </c>
       <c r="W23">
-        <v>756.4631039693309</v>
+        <v>480.1748825164802</v>
       </c>
       <c r="X23">
         <v>1026.907858770363</v>
       </c>
       <c r="Y23">
-        <v>390.586503103935</v>
+        <v>83.38476508448048</v>
       </c>
       <c r="Z23">
-        <v>1.93673641551315</v>
+        <v>5.758544525849484</v>
       </c>
     </row>
     <row r="24" spans="1:26">
@@ -2399,67 +2399,67 @@
         <v>50</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24">
-        <v>496.0170565695655</v>
+        <v>735.8226810701666</v>
       </c>
       <c r="H24">
-        <v>10.44996607960312</v>
+        <v>69.6011697975178</v>
       </c>
       <c r="I24">
-        <v>485.5670904899623</v>
+        <v>666.2215112726487</v>
       </c>
       <c r="J24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K24">
-        <v>608.129293294249</v>
+        <v>927.0714845303048</v>
       </c>
       <c r="L24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M24">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N24">
-        <v>0.7984602877122319</v>
+        <v>0.718630140598258</v>
       </c>
       <c r="O24">
-        <v>623.4004120167189</v>
+        <v>981.9027636502254</v>
       </c>
       <c r="P24">
-        <v>15.27111872246999</v>
+        <v>54.83127911992045</v>
       </c>
       <c r="Q24">
-        <v>3.709225648936593</v>
+        <v>2.885231466788694</v>
       </c>
       <c r="R24">
-        <v>551.4852680409074</v>
+        <v>768.8705526492366</v>
       </c>
       <c r="S24">
-        <v>40.82218358367189</v>
+        <v>17.90771215646318</v>
       </c>
       <c r="T24">
-        <v>47.465901113088</v>
+        <v>10.57198726990948</v>
       </c>
       <c r="U24">
-        <v>3.860011581944199</v>
+        <v>2.358207792608654</v>
       </c>
       <c r="V24">
-        <v>445.2301003917703</v>
+        <v>502.0874902814642</v>
       </c>
       <c r="W24">
-        <v>560.3095066002129</v>
+        <v>379.6550858175265</v>
       </c>
       <c r="X24">
         <v>1045.876597090175</v>
       </c>
       <c r="Y24">
-        <v>437.7473037959262</v>
+        <v>118.8051125598704</v>
       </c>
       <c r="Z24">
-        <v>1.279983912502689</v>
+        <v>3.195612357390798</v>
       </c>
     </row>
     <row r="25" spans="1:26">
@@ -2479,67 +2479,67 @@
         <v>50</v>
       </c>
       <c r="F25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>578.3906809215661</v>
+        <v>303.6107116929743</v>
       </c>
       <c r="H25">
-        <v>31.24059617499097</v>
+        <v>65.65420211052128</v>
       </c>
       <c r="I25">
-        <v>547.1500847465751</v>
+        <v>237.9565095824531</v>
       </c>
       <c r="J25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K25">
-        <v>677.9515171403351</v>
+        <v>933.5177083083154</v>
       </c>
       <c r="L25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M25">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N25">
-        <v>0.8070637367322473</v>
+        <v>0.2549030483992303</v>
       </c>
       <c r="O25">
-        <v>701.7509092685725</v>
+        <v>986.0528152353997</v>
       </c>
       <c r="P25">
-        <v>23.79939212823739</v>
+        <v>52.53510692708451</v>
       </c>
       <c r="Q25">
-        <v>3.383918471436072</v>
+        <v>2.932228268827399</v>
       </c>
       <c r="R25">
-        <v>597.4163145086424</v>
+        <v>779.4727826708479</v>
       </c>
       <c r="S25">
-        <v>29.48608542131471</v>
+        <v>18.76940721951857</v>
       </c>
       <c r="T25">
-        <v>18.51407308880312</v>
+        <v>4.624391157505512</v>
       </c>
       <c r="U25">
-        <v>2.918531150395849</v>
+        <v>1.53134472067844</v>
       </c>
       <c r="V25">
-        <v>455.9734316529265</v>
+        <v>137.417293790151</v>
       </c>
       <c r="W25">
-        <v>477.9511007925454</v>
+        <v>787.1446759566675</v>
       </c>
       <c r="X25">
         <v>1025.10118553912</v>
       </c>
       <c r="Y25">
-        <v>347.1496683987854</v>
+        <v>91.5834772308051</v>
       </c>
       <c r="Z25">
-        <v>1.376786856796023</v>
+        <v>8.594832820913059</v>
       </c>
     </row>
     <row r="26" spans="1:26">
@@ -2559,67 +2559,67 @@
         <v>50</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G26">
-        <v>273.1180761724516</v>
+        <v>617.3737675507811</v>
       </c>
       <c r="H26">
-        <v>21.27576668023406</v>
+        <v>30.54684902688652</v>
       </c>
       <c r="I26">
-        <v>251.8423094922175</v>
+        <v>586.8269185238945</v>
       </c>
       <c r="J26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K26">
-        <v>638.7183667834788</v>
+        <v>924.4436594118266</v>
       </c>
       <c r="L26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M26">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N26">
-        <v>0.3942932011810933</v>
+        <v>0.6347892730393766</v>
       </c>
       <c r="O26">
-        <v>680.5706999701894</v>
+        <v>955.3168129075227</v>
       </c>
       <c r="P26">
-        <v>41.8523331867104</v>
+        <v>30.87315349569634</v>
       </c>
       <c r="Q26">
-        <v>2.788784164289214</v>
+        <v>3.432156039378889</v>
       </c>
       <c r="R26">
-        <v>522.0012427538251</v>
+        <v>818.4821791869008</v>
       </c>
       <c r="S26">
-        <v>16.26123678539133</v>
+        <v>30.94328582406369</v>
       </c>
       <c r="T26">
-        <v>12.83704978895957</v>
+        <v>20.2107185263981</v>
       </c>
       <c r="U26">
-        <v>2.552335504646297</v>
+        <v>3.006213083796802</v>
       </c>
       <c r="V26">
-        <v>197.5394148056855</v>
+        <v>494.9965813105026</v>
       </c>
       <c r="W26">
-        <v>751.892309963467</v>
+        <v>416.90770093179</v>
       </c>
       <c r="X26">
         <v>1003.734619455685</v>
       </c>
       <c r="Y26">
-        <v>365.0162526722057</v>
+        <v>79.29096004385792</v>
       </c>
       <c r="Z26">
-        <v>2.059887209018844</v>
+        <v>5.257947446987492</v>
       </c>
     </row>
     <row r="27" spans="1:26">
@@ -2639,67 +2639,67 @@
         <v>50</v>
       </c>
       <c r="F27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>320.319552057408</v>
+        <v>671.2218216354978</v>
       </c>
       <c r="H27">
-        <v>25.75302412959692</v>
+        <v>54.00443432742325</v>
       </c>
       <c r="I27">
-        <v>294.5665279278111</v>
+        <v>617.2173873080745</v>
       </c>
       <c r="J27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K27">
-        <v>663.2754464175723</v>
+        <v>981.4207870781896</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N27">
-        <v>0.4441088985259429</v>
+        <v>0.6289018894185099</v>
       </c>
       <c r="O27">
-        <v>690.9750963363987</v>
+        <v>1036.222599435189</v>
       </c>
       <c r="P27">
-        <v>27.69964991882632</v>
+        <v>54.80181235699949</v>
       </c>
       <c r="Q27">
-        <v>3.216684008280148</v>
+        <v>2.939613998443961</v>
       </c>
       <c r="R27">
-        <v>574.1744254887252</v>
+        <v>820.3246123334549</v>
       </c>
       <c r="S27">
-        <v>24.94526459219874</v>
+        <v>18.90854617516749</v>
       </c>
       <c r="T27">
-        <v>12.4381334963018</v>
+        <v>12.42901309855317</v>
       </c>
       <c r="U27">
-        <v>2.520767035563624</v>
+        <v>2.520033505633056</v>
       </c>
       <c r="V27">
-        <v>229.6491536358486</v>
+        <v>481.124403350208</v>
       </c>
       <c r="W27">
-        <v>785.393908407421</v>
+        <v>462.7430490271576</v>
       </c>
       <c r="X27">
         <v>1079.960436335232</v>
       </c>
       <c r="Y27">
-        <v>416.6849899176598</v>
+        <v>98.53964925704247</v>
       </c>
       <c r="Z27">
-        <v>1.884862491837349</v>
+        <v>4.696008688036669</v>
       </c>
     </row>
     <row r="28" spans="1:26">
@@ -2719,67 +2719,67 @@
         <v>50</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>533.1038226465827</v>
+        <v>513.0584906124085</v>
       </c>
       <c r="H28">
-        <v>7.602980510863082</v>
+        <v>51.21480982562215</v>
       </c>
       <c r="I28">
-        <v>525.5008421357196</v>
+        <v>461.8436807867864</v>
       </c>
       <c r="J28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K28">
-        <v>695.8117986410916</v>
+        <v>1008.36401857119</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N28">
-        <v>0.7552341641260089</v>
+        <v>0.4580128527802881</v>
       </c>
       <c r="O28">
-        <v>730.0040201670332</v>
+        <v>1050.433754446795</v>
       </c>
       <c r="P28">
-        <v>34.19222152594156</v>
+        <v>42.06973587560447</v>
       </c>
       <c r="Q28">
-        <v>3.061051863767357</v>
+        <v>3.217629837952286</v>
       </c>
       <c r="R28">
-        <v>591.1476352127619</v>
+        <v>872.9991811430734</v>
       </c>
       <c r="S28">
-        <v>21.3500026493798</v>
+        <v>24.96886972508718</v>
       </c>
       <c r="T28">
-        <v>70.11774157317487</v>
+        <v>10.01777595893232</v>
       </c>
       <c r="U28">
-        <v>4.250175851507745</v>
+        <v>2.304361110833516</v>
       </c>
       <c r="V28">
-        <v>493.1868379689653</v>
+        <v>343.8262647258884</v>
       </c>
       <c r="W28">
-        <v>532.9119090143828</v>
+        <v>596.5690703633161</v>
       </c>
       <c r="X28">
         <v>1058.412751150102</v>
       </c>
       <c r="Y28">
-        <v>362.6009525090108</v>
+        <v>50.048732578912</v>
       </c>
       <c r="Z28">
-        <v>1.469692523770024</v>
+        <v>11.91976379067549</v>
       </c>
     </row>
     <row r="29" spans="1:26">
@@ -2799,67 +2799,67 @@
         <v>50</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G29">
-        <v>280.4555667468415</v>
+        <v>295.3269630982022</v>
       </c>
       <c r="H29">
-        <v>23.82774833209597</v>
+        <v>48.74409863822471</v>
       </c>
       <c r="I29">
-        <v>256.6278184147455</v>
+        <v>246.5828644599775</v>
       </c>
       <c r="J29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K29">
-        <v>578.3340644272032</v>
+        <v>893.9732109589662</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M29">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N29">
-        <v>0.4437363008677628</v>
+        <v>0.2758280241926575</v>
       </c>
       <c r="O29">
-        <v>606.8227363160931</v>
+        <v>949.3250548656964</v>
       </c>
       <c r="P29">
-        <v>28.48867188889009</v>
+        <v>55.35184390673014</v>
       </c>
       <c r="Q29">
-        <v>3.058730185304895</v>
+        <v>2.842041291348614</v>
       </c>
       <c r="R29">
-        <v>491.194903781408</v>
+        <v>736.6609850237561</v>
       </c>
       <c r="S29">
-        <v>21.30049230384586</v>
+        <v>17.15073948512616</v>
       </c>
       <c r="T29">
-        <v>11.77012459750836</v>
+        <v>6.058722416637514</v>
       </c>
       <c r="U29">
-        <v>2.465564507240653</v>
+        <v>1.801498955518027</v>
       </c>
       <c r="V29">
-        <v>197.878967839667</v>
+        <v>158.770421675548</v>
       </c>
       <c r="W29">
-        <v>734.9564987423057</v>
+        <v>745.0014526970738</v>
       </c>
       <c r="X29">
         <v>991.5843171570513</v>
       </c>
       <c r="Y29">
-        <v>413.2502527298481</v>
+        <v>97.61110619808505</v>
       </c>
       <c r="Z29">
-        <v>1.778478038155648</v>
+        <v>7.632343098184142</v>
       </c>
     </row>
     <row r="30" spans="1:26">
@@ -2879,67 +2879,67 @@
         <v>50</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G30">
-        <v>496.3102909814819</v>
+        <v>823.6279013437384</v>
       </c>
       <c r="H30">
-        <v>33.34915464628855</v>
+        <v>72.89465074847324</v>
       </c>
       <c r="I30">
-        <v>462.9611363351934</v>
+        <v>750.7332505952651</v>
       </c>
       <c r="J30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K30">
-        <v>649.8648544697025</v>
+        <v>989.6937374591025</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N30">
-        <v>0.7123960207279946</v>
+        <v>0.7585510771470229</v>
       </c>
       <c r="O30">
-        <v>664.6292723477798</v>
+        <v>1024.934947607054</v>
       </c>
       <c r="P30">
-        <v>14.764417878077</v>
+        <v>35.24121014795073</v>
       </c>
       <c r="Q30">
-        <v>3.807009311392282</v>
+        <v>3.370168283150675</v>
       </c>
       <c r="R30">
-        <v>593.6565781305769</v>
+        <v>870.9249287586318</v>
       </c>
       <c r="S30">
-        <v>45.01560967971903</v>
+        <v>29.08342089571103</v>
       </c>
       <c r="T30">
-        <v>14.88224502976169</v>
+        <v>11.29887986137294</v>
       </c>
       <c r="U30">
-        <v>2.700168893680386</v>
+        <v>2.424703593492729</v>
       </c>
       <c r="V30">
-        <v>372.9127863287483</v>
+        <v>573.9853289790445</v>
       </c>
       <c r="W30">
-        <v>602.3514754503761</v>
+        <v>314.5793611903044</v>
       </c>
       <c r="X30">
         <v>1065.31261178557</v>
       </c>
       <c r="Y30">
-        <v>415.447757315867</v>
+        <v>75.61887432646699</v>
       </c>
       <c r="Z30">
-        <v>1.449885009229705</v>
+        <v>4.160064057978182</v>
       </c>
     </row>
     <row r="31" spans="1:26">
@@ -2959,67 +2959,67 @@
         <v>50</v>
       </c>
       <c r="F31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G31">
-        <v>298.5547293442565</v>
+        <v>539.0928150775061</v>
       </c>
       <c r="H31">
-        <v>38.74813868638047</v>
+        <v>56.00773637825559</v>
       </c>
       <c r="I31">
-        <v>259.8065906578761</v>
+        <v>483.0850786992505</v>
       </c>
       <c r="J31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="K31">
-        <v>779.614522362009</v>
+        <v>1130.697875296634</v>
       </c>
       <c r="L31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>0.04</v>
+        <v>0.08</v>
       </c>
       <c r="N31">
-        <v>0.3332500655205042</v>
+        <v>0.4272450574584437</v>
       </c>
       <c r="O31">
-        <v>803.4367744481551</v>
+        <v>1167.002855257488</v>
       </c>
       <c r="P31">
-        <v>23.82225208614589</v>
+        <v>36.30497996085406</v>
       </c>
       <c r="Q31">
-        <v>3.518278388924488</v>
+        <v>3.470239158082579</v>
       </c>
       <c r="R31">
-        <v>695.8012076718109</v>
+        <v>1004.710912203074</v>
       </c>
       <c r="S31">
-        <v>33.72631485649516</v>
+        <v>32.14442912558585</v>
       </c>
       <c r="T31">
-        <v>7.705008278222023</v>
+        <v>9.62532767681722</v>
       </c>
       <c r="U31">
-        <v>2.041870543167611</v>
+        <v>2.264397923938998</v>
       </c>
       <c r="V31">
-        <v>180.6879076715825</v>
+        <v>356.2612767198058</v>
       </c>
       <c r="W31">
-        <v>921.0653887570918</v>
+        <v>697.7869007157174</v>
       </c>
       <c r="X31">
         <v>1180.871979414968</v>
       </c>
       <c r="Y31">
-        <v>401.2574570529589</v>
+        <v>50.17410411833407</v>
       </c>
       <c r="Z31">
-        <v>2.29544740556816</v>
+        <v>13.90731160978995</v>
       </c>
     </row>
   </sheetData>
